--- a/canada/2.british-columbia/vancouver/11-bc-auto-diagnosis.xlsx
+++ b/canada/2.british-columbia/vancouver/11-bc-auto-diagnosis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="1021">
   <si>
     <t>Business URL</t>
   </si>
@@ -223,6 +223,366 @@
     <t>https://www.bbb.org/ca/bc/parksville/profile/auto-repair/miles-d-automotive-ltd-0047-210650033</t>
   </si>
   <si>
+    <t>https://www.bbb.org/ca/bc/nanaimo/profile/transmission/alberni-automatic-transmission-ltd-0047-173</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/auto-body-repair-and-painting/korva-world-class-collision-ltd-0037-1285458</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/chilliwack/profile/auto-electric-service/guss-auto-electric-0037-1198579</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/kamloops/profile/auto-repair/advance-auto-service-0037-132182</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-maintenance/rg-diagnostics-0037-1272706</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/north-vancouver/profile/auto-body-repair-and-painting/csn-elite-xpress-0037-1378086</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/abbotsford/profile/auto-repair/abbymac-auto-marine-ltd-0037-1366806</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/auto-repair/midas-auto-services-0037-107897</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/north-vancouver/profile/auto-repair/rovalution-automotive-ltd-0037-1234672</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-repair/all-make-auto-repairs-centre-ltd-0037-218417</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/sidney/profile/tire-dealers/sidney-tire-ltd-0047-294</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/burnaby/profile/new-car-dealers/destination-toyota-burnaby-0037-118731</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/aldergrove/profile/auto-repair/bobs-driveline-service-ltd-0037-146682</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/nanaimo/profile/auto-repair/mid-island-automotive-repairs-ltd-0047-5184</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/burnaby/profile/auto-repair/the-garage-0037-126066</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/qualicum-beach/profile/auto-repair/arrowsmith-automotive-towing-ltd-0047-14322</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/qualicum-beach/profile/auto-repair/chucks-automotive-0047-204154734</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/abbotsford/profile/foreign-auto-repair/valley-eurotec-sales-service-ltd-0037-160710</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/maple-ridge/profile/auto-repair/c-c-auto-repairs-0037-215573</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-repair/dales-auto-service-ltd-0037-156595</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/maple-ridge/profile/auto-repair/westside-auto-repairs-0037-1277180</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-diagnosis/macs-auto-electric-0047-28865</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/saanichton/profile/auto-repair/ok-tire-saanichton-0047-90005872</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/canada/profile/auto-repair/js-performance-ltd-0037-1257256</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/nanaimo/profile/tire-dealers/fountain-tire-nanaimo-0047-3758</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-repair/dericks-automotive-services-ltd-0047-2961</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-repair/big-o-tires-westshore-0047-9150</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/coquitlam/profile/transmission/mister-transmission-coquitlam-0037-108968</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/abbotsford/profile/auto-repair/abs-automotive-0037-1230312</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/maple-ridge/profile/new-car-dealers/fraser-valley-alfa-romeo-0037-1266635</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/north-vancouver/profile/auto-services/taylormotive-service-ltd-0037-111493</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/abbotsford/profile/auto-repair/ernies-golden-automotive-0037-1355077</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/parksville/profile/auto-repair/kerrys-car-truck-centre-0047-2829</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-repair/island-muffler-and-auto-service-0047-1641</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-services/glen-lake-automotive-centre-0047-1366</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-repair/carcraft-auto-repair-0037-1276080</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/auto-repair-referral/westcoast-autosport-0037-1296764</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/burnaby/profile/auto-repair/deckers-brake-and-auto-centre-ltd-0037-1276982</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/abbotsford/profile/auto-repair/bobs-repairs-0037-146688</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/auto-body-repair-and-painting/glass-works-refinishing-and-autobody-0037-1296868</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-repair/midas-auto-service-experts-0037-2401097</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/langley/profile/auto-repair/fernridge-automotive-0037-112217</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/langley/profile/tire-dealers/treads-west-inc-0037-2431439?addressId=173517</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-repair/strawberry-hill-automotive-ltd-0037-198802</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/burnaby/profile/auto-renting-and-leasing/zeemac-vehicle-lease-ltd-0037-131144</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/coquitlam/profile/auto-repair/a-j-motorsport-ltd-0037-1233680</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/rebuilt-engines/canada-engines-ltd-0037-112358</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/chilliwack/profile/auto-repair/dcardos-mechanical-ltd-0037-1186695</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/new-westminster/profile/transmission/berts-automotive-transmissions-0037-111112</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/foreign-auto-repair/bmg-automotive-0037-1376448</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/langley/profile/tire-dealers/trail-tire-aldergrove-0037-1298870?addressId=109461</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-repair/victoria-today-auto-0047-7909</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/sooke/profile/auto-repair/sooke-centre-auto-repair-0047-31062</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/port-coquitlam/profile/auto-repair/city-tire-automotive-repair-0037-1265769</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-repair/valley-auto-rv-repair-inc-0037-203843</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/auto-repair/kar-king-auto-repairs-ltd-0037-111460</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-repair/jas-toora-automotive-transmission-services-ltd-0047-97</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/transmission/bullfrog-transmissions-ltd-0047-818</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/chilliwack/profile/new-car-dealers/murray-mazda-chilliwack-0037-1277019</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/ladysmith/profile/auto-repair/frank-laird-automotive-0047-2874</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/port-coquitlam/profile/auto-repair/ok-tire-store-0037-107757</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/nanaimo/profile/new-car-dealers/laird-wheaton-0047-1063747</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/mission/profile/auto-diagnosis/dunwell-mobile-automotive-0037-1244177</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-repair/hung-sons-auto-repair-services-ltd-0037-1208170</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-brokers/kao-auto-0047-4703</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/burnaby/profile/auto-repair/bill-walters-garage-ltd-0037-146093</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/squamish/profile/tire-dealers/good-to-go-automotive-inc-0037-160897</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/tire-dealers/ok-tire-0037-117969</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/burnaby/profile/transmission/mister-transmission-burnaby-0037-133128</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/tire-dealers/tires-unlimited-0047-659</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/kamloops/profile/mobile-auto-repair/sage-mechanical-0037-1378004</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/north-vancouver/profile/auto-repair/esplanade-auto-house-ltd-0037-1228299</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/abbotsford/profile/auto-repair/hub-motor-service-0037-129245</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/langley/profile/auto-maintenance/auto-fierce-automotive-0037-1266298</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/chilliwack/profile/auto-repair/murray-honda-chilliwack-0037-114114</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/nanaimo/profile/rebuilt-engines/promax-automotive-0047-35889</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/duncan/profile/auto-repair/revved-up-automotive-offroad-0047-1082173</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-repair/lansdowne-auto-centre-0047-3745</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-repair/affordable-auto-repairs-and-maintenance-0047-231215431</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/maple-ridge/profile/auto-repair/scandia-motors-ltd-0037-194850</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/auto-repair/tcm-auto-service-0037-1352184</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/kamloops/profile/transmission/b-m-transmission-and-car-care-centre-0037-1276899</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/auto-repair/sovereign-motors-inc-0037-113378</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/north-vancouver/profile/auto-body-repair-and-painting/csn-elite-body-shop-0037-114281</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/delta/profile/auto-repair/delta-automotive-ltd-0037-114481</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/kamloops/profile/truck-parts/sportsman-light-truck-ltd-0037-128521</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-repair/surrey-centre-auto-repairs-inc-0037-1273693</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/maple-ridge/profile/auto-repair/sapperton-motors-auto-service-mr-ltd-0037-223729</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/used-car-dealers/granville-island-auto-centre-0037-116766</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/delta/profile/auto-repair/bc-tires-auto-repair-0037-103095</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/courtenay/profile/new-car-dealers/courtenay-nissan-0047-10111</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-maintenance/genesis-auto-repair-ltd-0037-1368117</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/maple-ridge/profile/new-car-dealers/maple-ridge-chrysler-jeep-dodge-0037-1226507</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/duncan/profile/auto-repair/dickson-fraser-auto-repairs-0047-12098</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/auto-repair/kingsway-autopro-napa-0037-128127</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/tire-dealers/fountain-tire-victoria-0047-1152</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/port-alberni/profile/mobile-auto-repair/alberni-mobile-mechanic-0047-235967966</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/coquitlam/profile/auto-repair/logans-blue-mountain-automotive-ltd-0037-107429</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/langley/profile/auto-maintenance/intricate-mindz-auto-design-0037-1275919</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-repair/prospect-lake-auto-care-inc-0047-3243</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/port-moody/profile/auto-repair/port-moody-auto-air-0037-1269693</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-repair/visscher-pau-automotive-ltd-0037-1292359</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/north-saanich/profile/auto-repair/deep-cove-auto-service-0047-2880</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/maple-ridge/profile/auto-repair/haney-automotive-0037-1200401</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/sidney/profile/brake-service/quality-brake-muffler-0047-14194</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/parksville/profile/auto-repair/surfside-automotive-inc-0047-1068796</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/transmission/victoria-transmission-auto-care-2010-ltd-0047-1010</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/burnaby/profile/tire-dealers/son-trail-tire-auto-center-0037-101808?addressId=173366</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/burnaby/profile/auto-repair/aes-auto-0037-1367275</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/coquitlam/profile/truck-repair/dieseltech-truck-repair-and-fleet-maintenance-0037-1267067</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/north-vancouver/profile/new-car-dealers/capilano-volkswagen-inc-0037-102326</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/courtenay/profile/new-car-dealers/comox-valley-dodge-chrysler-jeep-0047-1082270</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-repair/parkside-motors-ltd-0047-802</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/transmission/aamco-transmissions-0037-102081</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/port-alberni/profile/auto-repair/ace-automotive-0047-22966</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/duncan/profile/tire-dealers/ok-tire-duncan-0047-676</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/tire-dealers/hub-city-tires-ltd-0047-184022513</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-repair/zr-automotive-ltd-0037-2413563</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-diagnosis/rpm-diagnostics-0037-1280000</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/north-vancouver/profile/foreign-auto-repair/n-m-sportscar-ltd-0037-112017</t>
+  </si>
+  <si>
     <t>Integra Tire Auto Centre North Vancouver</t>
   </si>
   <si>
@@ -410,6 +770,357 @@
   </si>
   <si>
     <t>Miles D Automotive Ltd.</t>
+  </si>
+  <si>
+    <t>Alberni Automatic Transmission Ltd.</t>
+  </si>
+  <si>
+    <t>Korva World Class Collision LTD</t>
+  </si>
+  <si>
+    <t>Gus's Auto Electric</t>
+  </si>
+  <si>
+    <t>Advance Auto Service</t>
+  </si>
+  <si>
+    <t>RG Diagnostics</t>
+  </si>
+  <si>
+    <t>CSN Elite Xpress</t>
+  </si>
+  <si>
+    <t>AbbyMac Auto Marine Ltd.</t>
+  </si>
+  <si>
+    <t>Midas Auto Services</t>
+  </si>
+  <si>
+    <t>Rovalution Automotive Ltd</t>
+  </si>
+  <si>
+    <t>All Make Auto Repairs Centre Ltd.</t>
+  </si>
+  <si>
+    <t>Sidney Tire Ltd.</t>
+  </si>
+  <si>
+    <t>Destination Toyota Burnaby</t>
+  </si>
+  <si>
+    <t>Bob's Driveline Service Ltd.</t>
+  </si>
+  <si>
+    <t>Mid Island Automotive Repairs Ltd.</t>
+  </si>
+  <si>
+    <t>The Garage</t>
+  </si>
+  <si>
+    <t>Arrowsmith Automotive &amp; Towing Ltd.</t>
+  </si>
+  <si>
+    <t>Chuck's Automotive</t>
+  </si>
+  <si>
+    <t>Valley Eurotec Sales &amp; Service Ltd.</t>
+  </si>
+  <si>
+    <t>C C Auto Repairs</t>
+  </si>
+  <si>
+    <t>Dales Auto Service Ltd</t>
+  </si>
+  <si>
+    <t>Westside Auto Repairs</t>
+  </si>
+  <si>
+    <t>Mac's Auto Electric</t>
+  </si>
+  <si>
+    <t>OK Tire - Saanichton</t>
+  </si>
+  <si>
+    <t>JS Performance Ltd</t>
+  </si>
+  <si>
+    <t>Fountain Tire - Nanaimo</t>
+  </si>
+  <si>
+    <t>Derick's Automotive Services Ltd.</t>
+  </si>
+  <si>
+    <t>Big O Tires Westshore</t>
+  </si>
+  <si>
+    <t>Mister Transmission (Coquitlam)</t>
+  </si>
+  <si>
+    <t>ABS Automotive</t>
+  </si>
+  <si>
+    <t>Fraser Valley Alfa Romeo</t>
+  </si>
+  <si>
+    <t>Taylormotive Service Ltd.</t>
+  </si>
+  <si>
+    <t>Ernies Golden Automotive</t>
+  </si>
+  <si>
+    <t>Kerry's Car &amp; Truck Centre</t>
+  </si>
+  <si>
+    <t>Island Muffler and Auto Service</t>
+  </si>
+  <si>
+    <t>Glen Lake Automotive Centre</t>
+  </si>
+  <si>
+    <t>Carcraft Auto Repair</t>
+  </si>
+  <si>
+    <t>Westcoast Autosport</t>
+  </si>
+  <si>
+    <t>Decker's Brake and Auto Centre Ltd</t>
+  </si>
+  <si>
+    <t>Bob's Repairs</t>
+  </si>
+  <si>
+    <t>Glass Works Refinishing and Autobody</t>
+  </si>
+  <si>
+    <t>Fernridge Automotive</t>
+  </si>
+  <si>
+    <t>Strawberry Hill Automotive Ltd.</t>
+  </si>
+  <si>
+    <t>Zeemac Vehicle Lease Ltd.</t>
+  </si>
+  <si>
+    <t>A &amp; J Motorsport Ltd.</t>
+  </si>
+  <si>
+    <t>Canada Engines Ltd.</t>
+  </si>
+  <si>
+    <t>D'cardos Mechanical Ltd.</t>
+  </si>
+  <si>
+    <t>Bert's Automotive Transmissions</t>
+  </si>
+  <si>
+    <t>BMG Automotive</t>
+  </si>
+  <si>
+    <t>Victoria Today Auto</t>
+  </si>
+  <si>
+    <t>Sooke Centre Auto Repair</t>
+  </si>
+  <si>
+    <t>City Tire &amp; Automotive Repair</t>
+  </si>
+  <si>
+    <t>Valley Auto &amp; RV Repair Inc</t>
+  </si>
+  <si>
+    <t>Kar King Auto Repairs Ltd.</t>
+  </si>
+  <si>
+    <t>Jas Toora Automotive &amp; Transmission Services Ltd.</t>
+  </si>
+  <si>
+    <t>Bullfrog Transmissions Ltd.</t>
+  </si>
+  <si>
+    <t>Murray Mazda Chilliwack</t>
+  </si>
+  <si>
+    <t>Frank Laird Automotive</t>
+  </si>
+  <si>
+    <t>OK Tire Store</t>
+  </si>
+  <si>
+    <t>Laird Wheaton</t>
+  </si>
+  <si>
+    <t>Dunwell Mobile Automotive</t>
+  </si>
+  <si>
+    <t>Hung &amp; Son's Auto Repair Services Ltd</t>
+  </si>
+  <si>
+    <t>KAO Auto</t>
+  </si>
+  <si>
+    <t>Bill &amp; Walter's Garage Ltd.</t>
+  </si>
+  <si>
+    <t>Good to Go Automotive Inc</t>
+  </si>
+  <si>
+    <t>OK Tire</t>
+  </si>
+  <si>
+    <t>Mister Transmission Burnaby</t>
+  </si>
+  <si>
+    <t>Tires Unlimited</t>
+  </si>
+  <si>
+    <t>Sage Mechanical</t>
+  </si>
+  <si>
+    <t>Esplanade Auto House Ltd</t>
+  </si>
+  <si>
+    <t>Hub Motor Service</t>
+  </si>
+  <si>
+    <t>Auto Fierce Automotive</t>
+  </si>
+  <si>
+    <t>Murray Honda Chilliwack</t>
+  </si>
+  <si>
+    <t>ProMax Automotive</t>
+  </si>
+  <si>
+    <t>Revved Up Automotive &amp; Offroad</t>
+  </si>
+  <si>
+    <t>Lansdowne Auto Centre</t>
+  </si>
+  <si>
+    <t>Affordable Auto Repairs and Maintenance</t>
+  </si>
+  <si>
+    <t>Scandia Motors Ltd.</t>
+  </si>
+  <si>
+    <t>TCM Auto Service</t>
+  </si>
+  <si>
+    <t>B &amp; M Transmission and Car Care Centre</t>
+  </si>
+  <si>
+    <t>Sovereign Motors Inc.</t>
+  </si>
+  <si>
+    <t>CSN Elite Body Shop</t>
+  </si>
+  <si>
+    <t>Delta Automotive Ltd.</t>
+  </si>
+  <si>
+    <t>Sportsman Light Truck Ltd.</t>
+  </si>
+  <si>
+    <t>Surrey Centre Auto Repairs Inc.</t>
+  </si>
+  <si>
+    <t>Sapperton Motors Auto Service (M.R.) Ltd.</t>
+  </si>
+  <si>
+    <t>Granville Island Auto Centre</t>
+  </si>
+  <si>
+    <t>BC Tires &amp; Auto Repair</t>
+  </si>
+  <si>
+    <t>Courtenay Nissan</t>
+  </si>
+  <si>
+    <t>Genesis Auto Repair Ltd.</t>
+  </si>
+  <si>
+    <t>Maple Ridge Chrysler Jeep Dodge</t>
+  </si>
+  <si>
+    <t>Dickson &amp; Fraser Auto Repairs</t>
+  </si>
+  <si>
+    <t>Kingsway Autopro - Napa</t>
+  </si>
+  <si>
+    <t>Fountain Tire - Victoria</t>
+  </si>
+  <si>
+    <t>Alberni Mobile Mechanic</t>
+  </si>
+  <si>
+    <t>Logans Blue Mountain Automotive Ltd</t>
+  </si>
+  <si>
+    <t>Intricate Mindz Auto Design</t>
+  </si>
+  <si>
+    <t>Prospect Lake Auto Care Inc.</t>
+  </si>
+  <si>
+    <t>Port Moody Auto &amp; Air</t>
+  </si>
+  <si>
+    <t>Visscher-Pau Automotive Ltd.</t>
+  </si>
+  <si>
+    <t>Deep Cove Auto Service</t>
+  </si>
+  <si>
+    <t>Haney Automotive</t>
+  </si>
+  <si>
+    <t>Quality Brake &amp; Muffler</t>
+  </si>
+  <si>
+    <t>Surfside Automotive Inc.</t>
+  </si>
+  <si>
+    <t>Victoria Transmission &amp; Auto Care 2010 Ltd.</t>
+  </si>
+  <si>
+    <t>Son Trail Tire Auto Center</t>
+  </si>
+  <si>
+    <t>AES Auto</t>
+  </si>
+  <si>
+    <t>Dieseltech Truck Repair and Fleet Maintenance</t>
+  </si>
+  <si>
+    <t>Capilano Volkswagen Inc.</t>
+  </si>
+  <si>
+    <t>Comox Valley Dodge Chrysler Jeep</t>
+  </si>
+  <si>
+    <t>Parkside Motors Ltd.</t>
+  </si>
+  <si>
+    <t>Aamco Transmissions</t>
+  </si>
+  <si>
+    <t>Ace Automotive</t>
+  </si>
+  <si>
+    <t>OK Tire - Duncan</t>
+  </si>
+  <si>
+    <t>Hub City Tires Ltd.</t>
+  </si>
+  <si>
+    <t>Z&amp;R Automotive Ltd.</t>
+  </si>
+  <si>
+    <t>RPM Diagnostics</t>
+  </si>
+  <si>
+    <t>N &amp; M Sportscar Ltd</t>
   </si>
   <si>
     <t>823 W 3 St
@@ -660,6 +1371,478 @@
 Parksville, BC V9P 1R2</t>
   </si>
   <si>
+    <t>130 Cliff St
+Nanaimo, BC V9R 5E7</t>
+  </si>
+  <si>
+    <t>231 West 2nd Avenue
+Vancouver, BC V5Y 1C7</t>
+  </si>
+  <si>
+    <t>2 45940 Railway Ave
+Chilliwack, BC V2P 1L3</t>
+  </si>
+  <si>
+    <t>1815 E Trans Canada Hwy
+Kamloops, BC V2C 3Z7</t>
+  </si>
+  <si>
+    <t>34 15531 24 Ave
+Surrey, BC V4A 2J4</t>
+  </si>
+  <si>
+    <t>860 1st St W
+North Vancouver, BC V7P 1A2</t>
+  </si>
+  <si>
+    <t>33166 S Fraser Way
+Abbotsford, BC V2S 2A8</t>
+  </si>
+  <si>
+    <t>1688 Main St
+Vancouver, BC V6A 2W8</t>
+  </si>
+  <si>
+    <t>867 West 3rd Street
+North Vancouver, BC V7P 1E2</t>
+  </si>
+  <si>
+    <t>7835 132 St
+Surrey, BC V3W 4M8</t>
+  </si>
+  <si>
+    <t>9817 Resthaven Dr
+Sidney, BC V8L 3E7</t>
+  </si>
+  <si>
+    <t>4451 Still Creek Dr
+Burnaby, BC V5C 6G9</t>
+  </si>
+  <si>
+    <t>27545 31 Ave
+Aldergrove, BC V4W 3L4</t>
+  </si>
+  <si>
+    <t>3 - 2210 Wilgress Rd
+Nanaimo, BC V9S 4N4</t>
+  </si>
+  <si>
+    <t>5707 Beresford St
+Burnaby, BC V5J 1J6</t>
+  </si>
+  <si>
+    <t>20 Hilliers Rd
+Qualicum Beach, BC V9K 1X4</t>
+  </si>
+  <si>
+    <t>123 Fourth Ave E
+Qualicum Beach, BC V9K 1T1</t>
+  </si>
+  <si>
+    <t>15 34220 S Fraser Way
+Abbotsford, BC V2S 2C6</t>
+  </si>
+  <si>
+    <t>170 20170 Stewart Cr
+Maple Ridge, BC V2X 0T4</t>
+  </si>
+  <si>
+    <t>108 19415 56 Ave
+Surrey, BC V3S 6K2</t>
+  </si>
+  <si>
+    <t>2 20736 Lougheed Hwy
+Maple Ridge, BC V2X 2R1</t>
+  </si>
+  <si>
+    <t>496 Bay St
+Victoria, BC V8T 5H2</t>
+  </si>
+  <si>
+    <t>6800 Oldfield Rd
+Saanichton, BC V8M 2A3</t>
+  </si>
+  <si>
+    <t>8 30528 Great Northern Ave
+Canada, BC V2T 6H4</t>
+  </si>
+  <si>
+    <t>#1 - 4801 Wellington Rd
+Nanaimo, BC V9T 2H5</t>
+  </si>
+  <si>
+    <t>638 John St
+Victoria, BC V8T 1T9</t>
+  </si>
+  <si>
+    <t>1710B Island Hwy
+Victoria, BC V9B 1J1</t>
+  </si>
+  <si>
+    <t>102 2724 Barnet Hwy
+Coquitlam, BC V3B 1B8</t>
+  </si>
+  <si>
+    <t>4 2139 Clearbrook Rd
+Abbotsford, BC V2T 4H6</t>
+  </si>
+  <si>
+    <t>22856 Lougheed Hwy
+Maple Ridge, BC V2X 6P6</t>
+  </si>
+  <si>
+    <t>174 Pemberton Ave
+North Vancouver, BC V7P 2R5</t>
+  </si>
+  <si>
+    <t>31580 South Fraser Way # 7
+Abbotsford, BC V2T 4C6</t>
+  </si>
+  <si>
+    <t>#10 - 464 Island Hwy E
+Parksville, BC V9P 2H4</t>
+  </si>
+  <si>
+    <t>677 Burnside Rd E
+Victoria, BC V8T 2X9</t>
+  </si>
+  <si>
+    <t>1098 Goldstream Ave
+Victoria, BC V9B 2Y5</t>
+  </si>
+  <si>
+    <t>15370 Fraser Hwy
+Surrey, BC V3R 3P5</t>
+  </si>
+  <si>
+    <t>1215 Francis
+Vancouver, BC V6A 1Z4</t>
+  </si>
+  <si>
+    <t>7258 Gilley Ave
+Burnaby, BC V5J 4X3</t>
+  </si>
+  <si>
+    <t>101 33415 Maclure Rd
+Abbotsford, BC V2S 7W2</t>
+  </si>
+  <si>
+    <t>1703 Kingsway
+Vancouver, BC V5N 2S3</t>
+  </si>
+  <si>
+    <t>18565 Fraser Hwy
+Surrey, BC V3S 8E7</t>
+  </si>
+  <si>
+    <t>22339 48 Ave
+Langley, BC V3A 3N4</t>
+  </si>
+  <si>
+    <t>7631 128 St
+Surrey, BC V3W 4E6</t>
+  </si>
+  <si>
+    <t>2293 Douglas Rd
+Burnaby, BC V5C 5A9</t>
+  </si>
+  <si>
+    <t>685 Lougheed Hwy
+Coquitlam, BC V3K 3S5</t>
+  </si>
+  <si>
+    <t>12345 114 Ave
+Surrey, BC V3V 3N6</t>
+  </si>
+  <si>
+    <t>45928 Alexander Ave
+Chilliwack, BC V2P 1L5</t>
+  </si>
+  <si>
+    <t>920 Agnes St
+New Westminster, BC V3M 1H6</t>
+  </si>
+  <si>
+    <t>18 15515 24 Ave
+Surrey, BC V4A 2J4</t>
+  </si>
+  <si>
+    <t>2 - 734 Aldebury St
+Victoria, BC V9A 5T4</t>
+  </si>
+  <si>
+    <t>2061 Otter Point Rd
+Sooke, BC V9Z 0H2</t>
+  </si>
+  <si>
+    <t>101 1772 Broadway St
+Port Coquitlam, BC V3C 2M8</t>
+  </si>
+  <si>
+    <t>17902 Roan Place
+Surrey, BC V3S 5K1</t>
+  </si>
+  <si>
+    <t>758 Alexander St
+Vancouver, BC V6A 1E3</t>
+  </si>
+  <si>
+    <t>552 David St
+Victoria, BC V8T 2C8</t>
+  </si>
+  <si>
+    <t>750 Roderick St
+Victoria, BC V8X 2R3</t>
+  </si>
+  <si>
+    <t>45018 W Yale Rd
+Chilliwack, BC V2R 0G5</t>
+  </si>
+  <si>
+    <t>1250 Rocky Creek Rd
+Ladysmith, BC V9G 1A5</t>
+  </si>
+  <si>
+    <t>2945 Cambridge St
+Port Coquitlam, BC V3B 5L1</t>
+  </si>
+  <si>
+    <t>2590 Bowen Rd
+Nanaimo, BC V9T 3L3</t>
+  </si>
+  <si>
+    <t>32380 McRae Ave
+Mission, BC V2V 3L7</t>
+  </si>
+  <si>
+    <t>10637 King George Hwy
+Surrey, BC V3T 2X6</t>
+  </si>
+  <si>
+    <t>603 Alpha St
+Victoria, BC V8Z 1B5</t>
+  </si>
+  <si>
+    <t>4406 Dawson St
+Burnaby, BC V5C 4B9</t>
+  </si>
+  <si>
+    <t>1488 Pemberton Ave
+Squamish, BC V8B 0A9</t>
+  </si>
+  <si>
+    <t>19082 21 Ave
+Surrey, BC V3Z 3M3</t>
+  </si>
+  <si>
+    <t>6889 Sellers Ave
+Burnaby, BC V5J 4R2</t>
+  </si>
+  <si>
+    <t>616 Gorge Rd E
+Victoria, BC V8T 2W6</t>
+  </si>
+  <si>
+    <t>1826 Gellrich Ave
+Kamloops, BC V2B 4K5</t>
+  </si>
+  <si>
+    <t>407 Mountain Hwy
+North Vancouver, BC V7J 2L1</t>
+  </si>
+  <si>
+    <t>33839 Essendene Ave
+Abbotsford, BC V2S 2H3</t>
+  </si>
+  <si>
+    <t>103 20785 Langley Bypass
+Langley, BC V3A 5E8</t>
+  </si>
+  <si>
+    <t>44954 W Yale Rd
+Chilliwack, BC V2R 4H1</t>
+  </si>
+  <si>
+    <t>2700 Shady Mile Way
+Nanaimo, BC V9R 7A9</t>
+  </si>
+  <si>
+    <t>5285 Polkey Rd.
+Duncan, BC V9L 6W3</t>
+  </si>
+  <si>
+    <t>3095 Shelbourne St
+Victoria, BC V8R 4M9</t>
+  </si>
+  <si>
+    <t>101 - 931 Dunford Ave
+Victoria, BC V9B 2S4</t>
+  </si>
+  <si>
+    <t>20726 Lougheed Hwy
+Maple Ridge, BC V2X 2R1</t>
+  </si>
+  <si>
+    <t>880 Renfrew St
+Vancouver, BC V5K 4B6</t>
+  </si>
+  <si>
+    <t>1400 Battle St
+Kamloops, BC V2C 2N8</t>
+  </si>
+  <si>
+    <t>8809 Heather St
+Vancouver, BC V6P 3T1</t>
+  </si>
+  <si>
+    <t>142 Fell Ave
+North Vancouver, BC V7P 2J9</t>
+  </si>
+  <si>
+    <t>4846 Elliott St
+Delta, BC V4K 2X8</t>
+  </si>
+  <si>
+    <t>701 Athabasca Str E
+Kamloops, BC V2H 1C7</t>
+  </si>
+  <si>
+    <t>13654 104 Ave
+Surrey, BC V3T 1W2</t>
+  </si>
+  <si>
+    <t>4 22899 Dewdney Trunk Rd
+Maple Ridge, BC V2X 3K8</t>
+  </si>
+  <si>
+    <t>1581 W 4 Ave
+Vancouver, BC V6J 1L6</t>
+  </si>
+  <si>
+    <t>8971 120 St
+Delta, BC V4C 6R6</t>
+  </si>
+  <si>
+    <t>535 Silverdale Cres
+Courtenay, BC V9N 4B4</t>
+  </si>
+  <si>
+    <t>13433 King George Blvd
+Surrey, BC V3T 2T8</t>
+  </si>
+  <si>
+    <t>11911 West St
+Maple Ridge, BC V2X 3M6</t>
+  </si>
+  <si>
+    <t>5237 Polkey Rd
+Duncan, BC V9L 6W3</t>
+  </si>
+  <si>
+    <t>2277 Kingsway
+Vancouver, BC V5N 2T6</t>
+  </si>
+  <si>
+    <t>610 Herald St
+Victoria, BC V8W 1S7</t>
+  </si>
+  <si>
+    <t>5708 Beaver Creek Rd
+Port Alberni, BC V9Y 8X5</t>
+  </si>
+  <si>
+    <t>287 Schoolhouse St
+Coquitlam, BC V3K 4Y1</t>
+  </si>
+  <si>
+    <t>405 20540 Duncan Way
+Langley, BC V3A 7A3</t>
+  </si>
+  <si>
+    <t>5295 West Saanich Rd
+Victoria, BC V9E 2E8</t>
+  </si>
+  <si>
+    <t>85 Moray St
+Port Moody, BC V3H 3M2</t>
+  </si>
+  <si>
+    <t>6455 176 St
+Surrey, BC V3S 4G4</t>
+  </si>
+  <si>
+    <t>10930 West Saanich Rd
+North Saanich, BC V8L 5R9</t>
+  </si>
+  <si>
+    <t>22711 Selkirk Ave
+Maple Ridge, BC V2X 2Y1</t>
+  </si>
+  <si>
+    <t>9820 Fifth St
+Sidney, BC V8L 2X3</t>
+  </si>
+  <si>
+    <t>6-1009 Allsbrook Rd
+Parksville, BC V9P 2T3</t>
+  </si>
+  <si>
+    <t>1885 Government St
+Victoria, BC V8T 4W6</t>
+  </si>
+  <si>
+    <t>2851 Norland Ave
+Burnaby, BC V5B 3A9</t>
+  </si>
+  <si>
+    <t>108 4713 Byrne Rd
+Burnaby, BC V5J 3H6</t>
+  </si>
+  <si>
+    <t>1650 Hartley Ave
+Coquitlam, BC V3K 7A1</t>
+  </si>
+  <si>
+    <t>1151 Marine Dr
+North Vancouver, BC V7P 1T1</t>
+  </si>
+  <si>
+    <t>278 Island Hwy N
+Courtenay, BC V9N 7R6</t>
+  </si>
+  <si>
+    <t>519 Ellice St
+Victoria, BC V8T 2G8</t>
+  </si>
+  <si>
+    <t>2750 Arbutus St
+Vancouver, BC V6J 3Y6</t>
+  </si>
+  <si>
+    <t>4685 Dundalk Ave S
+Port Alberni, BC V9Y 8P2</t>
+  </si>
+  <si>
+    <t>6482 Norcross Rd
+Duncan, BC V9L 5T3</t>
+  </si>
+  <si>
+    <t>Unit 2, 745 Vanalman Ave
+Victoria, BC V8Z 3B6</t>
+  </si>
+  <si>
+    <t>5 6468 King George Blvd
+Surrey, BC V3W 4Z3</t>
+  </si>
+  <si>
+    <t>6036 164 St.
+Surrey, BC V3S 3Y5</t>
+  </si>
+  <si>
+    <t>1107 West 14 St
+North Vancouver, BC V7P 1J9</t>
+  </si>
+  <si>
     <t>http://integratirenorthvancouver.com/</t>
   </si>
   <si>
@@ -843,6 +2026,348 @@
     <t>http://www.milesdautomotive.ca/</t>
   </si>
   <si>
+    <t>https://www.alberniautotrans.ca/</t>
+  </si>
+  <si>
+    <t>http://www.korvaworldclasscollision.com/</t>
+  </si>
+  <si>
+    <t>http://gusautoelectric.com/</t>
+  </si>
+  <si>
+    <t>https://kamloopsautorepair.ca/</t>
+  </si>
+  <si>
+    <t>http://rgdiagnostics.ca/</t>
+  </si>
+  <si>
+    <t>http://elitebodyshop.ca/</t>
+  </si>
+  <si>
+    <t>http://abbymacautomarine.com/</t>
+  </si>
+  <si>
+    <t>tel:604-757-9372</t>
+  </si>
+  <si>
+    <t>http://www.rovalution.ca/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/allmakeauto</t>
+  </si>
+  <si>
+    <t>https://www.sidneytire.com/</t>
+  </si>
+  <si>
+    <t>http://destinationtoyota.ca/</t>
+  </si>
+  <si>
+    <t>http://bobsdriveline.com/</t>
+  </si>
+  <si>
+    <t>https://www.midislandautomotive.com/</t>
+  </si>
+  <si>
+    <t>http://thegarage.ca/</t>
+  </si>
+  <si>
+    <t>tel:250-752-1662</t>
+  </si>
+  <si>
+    <t>https://chucksautomotive.ca/</t>
+  </si>
+  <si>
+    <t>http://valleyeurotec.com/</t>
+  </si>
+  <si>
+    <t>http://ccautorepairs.ca/</t>
+  </si>
+  <si>
+    <t>http://dalesauto.ca/</t>
+  </si>
+  <si>
+    <t>https://westsideautorepairs.ca/</t>
+  </si>
+  <si>
+    <t>http://www.macsautoelectric.com/</t>
+  </si>
+  <si>
+    <t>http://www.oktire.com/</t>
+  </si>
+  <si>
+    <t>tel:604-557-7900</t>
+  </si>
+  <si>
+    <t>https://www.fountaintire.com/</t>
+  </si>
+  <si>
+    <t>https://www.dericksautomotive.ca/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bigowestshore/</t>
+  </si>
+  <si>
+    <t>http://mistertransmission.com/coquitlam</t>
+  </si>
+  <si>
+    <t>tel:604-855-4254</t>
+  </si>
+  <si>
+    <t>http://fraservalleyalfaromeodealer.com/</t>
+  </si>
+  <si>
+    <t>http://taylormotive.com/</t>
+  </si>
+  <si>
+    <t>https://www.erniesgoldenautomotive.com/</t>
+  </si>
+  <si>
+    <t>http://safe-car.ca/</t>
+  </si>
+  <si>
+    <t>http://www.islandmuffler.com/</t>
+  </si>
+  <si>
+    <t>https://www.shopvictoria.ca/glenlakeautomotive</t>
+  </si>
+  <si>
+    <t>http://carcraftautorepair.ca/</t>
+  </si>
+  <si>
+    <t>tel:604-251-6600</t>
+  </si>
+  <si>
+    <t>http://www.deckersauto.com/</t>
+  </si>
+  <si>
+    <t>https://www.bobsrepairsabbotsford.com/</t>
+  </si>
+  <si>
+    <t>http://glassworksrefinishing.ca/</t>
+  </si>
+  <si>
+    <t>https://www.fernridgeautomotive.mechanicnet.com/</t>
+  </si>
+  <si>
+    <t>http://strawberryhillauto.com/</t>
+  </si>
+  <si>
+    <t>https://www.zeemac.com/</t>
+  </si>
+  <si>
+    <t>tel:604-936-7488</t>
+  </si>
+  <si>
+    <t>http://canadaengines.com/</t>
+  </si>
+  <si>
+    <t>https://www.dcardos.com/</t>
+  </si>
+  <si>
+    <t>https://www.yelp.ca/biz/berts-automotive-transmissions-vancouver</t>
+  </si>
+  <si>
+    <t>https://bmgautomotive.wordpress.com/</t>
+  </si>
+  <si>
+    <t>tel:250-380-6555</t>
+  </si>
+  <si>
+    <t>http://sookeauto.ca/</t>
+  </si>
+  <si>
+    <t>http://www.citytire.info/</t>
+  </si>
+  <si>
+    <t>https://www.valleyautorepair.net/</t>
+  </si>
+  <si>
+    <t>https://www.yellowpages.ca/bus/British-Columbia/Vancouver/L-K-s-Kar-King-Auto-Sales/2360476.html</t>
+  </si>
+  <si>
+    <t>https://www.jastooraauto.com/</t>
+  </si>
+  <si>
+    <t>https://www.bullfrogtrans.com/</t>
+  </si>
+  <si>
+    <t>http://www.murraymazda.ca/</t>
+  </si>
+  <si>
+    <t>tel:250-245-5758</t>
+  </si>
+  <si>
+    <t>https://www.oktire.com/stores/ok-tire-port-coquitlam</t>
+  </si>
+  <si>
+    <t>https://www.lairdwheaton.com/</t>
+  </si>
+  <si>
+    <t>http://ray-mobile-mechanic-rain-or-shine-7-dayswk.business.site/</t>
+  </si>
+  <si>
+    <t>tel:604-588-2182</t>
+  </si>
+  <si>
+    <t>https://www.kaoauto.ca/</t>
+  </si>
+  <si>
+    <t>https://bw-garage.com/</t>
+  </si>
+  <si>
+    <t>http://www.good2goauto.ca/</t>
+  </si>
+  <si>
+    <t>http://oktire.com/</t>
+  </si>
+  <si>
+    <t>https://www.mistertransmission.com/burnaby</t>
+  </si>
+  <si>
+    <t>tel:250-318-0551</t>
+  </si>
+  <si>
+    <t>http://esplanadeautohouse.com/</t>
+  </si>
+  <si>
+    <t>http://www.hubmotor.ca/</t>
+  </si>
+  <si>
+    <t>http://autofierce.com/</t>
+  </si>
+  <si>
+    <t>http://www.murrayhonda.ca/</t>
+  </si>
+  <si>
+    <t>https://promaxautomotive.com/</t>
+  </si>
+  <si>
+    <t>tel:250-746-7176</t>
+  </si>
+  <si>
+    <t>https://lansdowneautocentre.com/</t>
+  </si>
+  <si>
+    <t>https://affordablerepair.ca/</t>
+  </si>
+  <si>
+    <t>http://www.scandiamotors.ca/</t>
+  </si>
+  <si>
+    <t>tel:604-254-2444</t>
+  </si>
+  <si>
+    <t>http://bmtrans.ca/</t>
+  </si>
+  <si>
+    <t>http://sovereignmotors.ca/</t>
+  </si>
+  <si>
+    <t>http://deltaauto.ca/</t>
+  </si>
+  <si>
+    <t>https://www.sportsman4x4.com/</t>
+  </si>
+  <si>
+    <t>http://www.surreycentreauto.com/</t>
+  </si>
+  <si>
+    <t>https://www.sappertonmotors.com/</t>
+  </si>
+  <si>
+    <t>http://psmotors.ca/</t>
+  </si>
+  <si>
+    <t>https://www.bctiresautomotive.ca/</t>
+  </si>
+  <si>
+    <t>https://www.courtenaynissan.com/</t>
+  </si>
+  <si>
+    <t>https://genesisautorepair.ca/</t>
+  </si>
+  <si>
+    <t>https://www.mapleridgechrysler.com/</t>
+  </si>
+  <si>
+    <t>tel:250-746-4652</t>
+  </si>
+  <si>
+    <t>tel:604-434-1055</t>
+  </si>
+  <si>
+    <t>http://www.fountaintire.com/</t>
+  </si>
+  <si>
+    <t>https://albernimobilemechanic.com/</t>
+  </si>
+  <si>
+    <t>http://www.logans-auto.ca/</t>
+  </si>
+  <si>
+    <t>tel:778-710-4623</t>
+  </si>
+  <si>
+    <t>tel:250-744-1773</t>
+  </si>
+  <si>
+    <t>http://portmoodyautorepair.com/</t>
+  </si>
+  <si>
+    <t>http://visscherpauauto.com/</t>
+  </si>
+  <si>
+    <t>http://deepcoveautoservice.com/</t>
+  </si>
+  <si>
+    <t>https://haneyautomotive.com/</t>
+  </si>
+  <si>
+    <t>https://www.qualitybrakeandmuffler.ca/</t>
+  </si>
+  <si>
+    <t>http://www.surfsideautomotive.com/</t>
+  </si>
+  <si>
+    <t>https://victrans.com/</t>
+  </si>
+  <si>
+    <t>https://trailtire.com/kirks-alberta-lethbridge/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AESautomotive/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/dieseltech-truck-repair-fleet-maintenance/</t>
+  </si>
+  <si>
+    <t>https://www.capilanovw.com/en</t>
+  </si>
+  <si>
+    <t>https://www.comoxvalleydodge.com/</t>
+  </si>
+  <si>
+    <t>https://parksidemotors.ca/</t>
+  </si>
+  <si>
+    <t>https://facebook.com/AAMCO</t>
+  </si>
+  <si>
+    <t>https://aceautomotivepa.com/</t>
+  </si>
+  <si>
+    <t>https://hubcitytires.ca/</t>
+  </si>
+  <si>
+    <t>https://zr-automotive-ltd.business.site/?m=true</t>
+  </si>
+  <si>
+    <t>tel:778-953-6614</t>
+  </si>
+  <si>
+    <t>tel:604-985-4840</t>
+  </si>
+  <si>
     <t>16049843551</t>
   </si>
   <si>
@@ -1029,6 +2554,360 @@
     <t>12502489679</t>
   </si>
   <si>
+    <t>12507533268</t>
+  </si>
+  <si>
+    <t>16048770774</t>
+  </si>
+  <si>
+    <t>16047924669</t>
+  </si>
+  <si>
+    <t>12503723222</t>
+  </si>
+  <si>
+    <t>16045367527</t>
+  </si>
+  <si>
+    <t>16049872033</t>
+  </si>
+  <si>
+    <t>16048596609</t>
+  </si>
+  <si>
+    <t>16047579372</t>
+  </si>
+  <si>
+    <t>16049856317</t>
+  </si>
+  <si>
+    <t>16045976666</t>
+  </si>
+  <si>
+    <t>12506565544</t>
+  </si>
+  <si>
+    <t>16045714350</t>
+  </si>
+  <si>
+    <t>16048568816</t>
+  </si>
+  <si>
+    <t>12363620333</t>
+  </si>
+  <si>
+    <t>16047331312</t>
+  </si>
+  <si>
+    <t>12507521662</t>
+  </si>
+  <si>
+    <t>12507525822</t>
+  </si>
+  <si>
+    <t>16048648550</t>
+  </si>
+  <si>
+    <t>16044606506</t>
+  </si>
+  <si>
+    <t>16045309160</t>
+  </si>
+  <si>
+    <t>16044638876</t>
+  </si>
+  <si>
+    <t>12503830101</t>
+  </si>
+  <si>
+    <t>12505441489</t>
+  </si>
+  <si>
+    <t>16045577900</t>
+  </si>
+  <si>
+    <t>12507581508</t>
+  </si>
+  <si>
+    <t>12503821314</t>
+  </si>
+  <si>
+    <t>12504746611</t>
+  </si>
+  <si>
+    <t>16049455955</t>
+  </si>
+  <si>
+    <t>16048554254</t>
+  </si>
+  <si>
+    <t>16044663320</t>
+  </si>
+  <si>
+    <t>16049857455</t>
+  </si>
+  <si>
+    <t>16047462610</t>
+  </si>
+  <si>
+    <t>12509540029</t>
+  </si>
+  <si>
+    <t>12503857033</t>
+  </si>
+  <si>
+    <t>12504743535</t>
+  </si>
+  <si>
+    <t>16045033959</t>
+  </si>
+  <si>
+    <t>16042516600</t>
+  </si>
+  <si>
+    <t>16044338178</t>
+  </si>
+  <si>
+    <t>16048591879</t>
+  </si>
+  <si>
+    <t>16045692234</t>
+  </si>
+  <si>
+    <t>16042390140</t>
+  </si>
+  <si>
+    <t>16045339291</t>
+  </si>
+  <si>
+    <t>16045979325</t>
+  </si>
+  <si>
+    <t>16042988789</t>
+  </si>
+  <si>
+    <t>16049367488</t>
+  </si>
+  <si>
+    <t>16045801050</t>
+  </si>
+  <si>
+    <t>16047920423</t>
+  </si>
+  <si>
+    <t>16045249747</t>
+  </si>
+  <si>
+    <t>17788361233</t>
+  </si>
+  <si>
+    <t>12503806555</t>
+  </si>
+  <si>
+    <t>12506426341</t>
+  </si>
+  <si>
+    <t>16044645811</t>
+  </si>
+  <si>
+    <t>16045762824</t>
+  </si>
+  <si>
+    <t>16042553930</t>
+  </si>
+  <si>
+    <t>12503890624</t>
+  </si>
+  <si>
+    <t>12504752323</t>
+  </si>
+  <si>
+    <t>16047953700</t>
+  </si>
+  <si>
+    <t>12502455758</t>
+  </si>
+  <si>
+    <t>16049420414</t>
+  </si>
+  <si>
+    <t>12507582438</t>
+  </si>
+  <si>
+    <t>16045183844</t>
+  </si>
+  <si>
+    <t>16045882182</t>
+  </si>
+  <si>
+    <t>12503822722</t>
+  </si>
+  <si>
+    <t>16042983031</t>
+  </si>
+  <si>
+    <t>16048988331</t>
+  </si>
+  <si>
+    <t>16045427999</t>
+  </si>
+  <si>
+    <t>16042997778</t>
+  </si>
+  <si>
+    <t>12503866367</t>
+  </si>
+  <si>
+    <t>12503180551</t>
+  </si>
+  <si>
+    <t>16049807413</t>
+  </si>
+  <si>
+    <t>16048532352</t>
+  </si>
+  <si>
+    <t>16045335113</t>
+  </si>
+  <si>
+    <t>16047922724</t>
+  </si>
+  <si>
+    <t>12507560286</t>
+  </si>
+  <si>
+    <t>12507467176</t>
+  </si>
+  <si>
+    <t>12505922444</t>
+  </si>
+  <si>
+    <t>12502131959</t>
+  </si>
+  <si>
+    <t>16044674817</t>
+  </si>
+  <si>
+    <t>16042542444</t>
+  </si>
+  <si>
+    <t>12503744727</t>
+  </si>
+  <si>
+    <t>16046872146</t>
+  </si>
+  <si>
+    <t>16049874408</t>
+  </si>
+  <si>
+    <t>16049460001</t>
+  </si>
+  <si>
+    <t>12503747175</t>
+  </si>
+  <si>
+    <t>16045881266</t>
+  </si>
+  <si>
+    <t>16044674060</t>
+  </si>
+  <si>
+    <t>16047329722</t>
+  </si>
+  <si>
+    <t>16045917396</t>
+  </si>
+  <si>
+    <t>12503381988</t>
+  </si>
+  <si>
+    <t>16044358543</t>
+  </si>
+  <si>
+    <t>18669782686</t>
+  </si>
+  <si>
+    <t>12507464652</t>
+  </si>
+  <si>
+    <t>16044341055</t>
+  </si>
+  <si>
+    <t>12503826184</t>
+  </si>
+  <si>
+    <t>12509132200</t>
+  </si>
+  <si>
+    <t>16045210305</t>
+  </si>
+  <si>
+    <t>17787104623</t>
+  </si>
+  <si>
+    <t>12507441773</t>
+  </si>
+  <si>
+    <t>16044617856</t>
+  </si>
+  <si>
+    <t>16045769534</t>
+  </si>
+  <si>
+    <t>17784261321</t>
+  </si>
+  <si>
+    <t>16044670138</t>
+  </si>
+  <si>
+    <t>12506567228</t>
+  </si>
+  <si>
+    <t>12502481133</t>
+  </si>
+  <si>
+    <t>12503822833</t>
+  </si>
+  <si>
+    <t>16042981622</t>
+  </si>
+  <si>
+    <t>17786538473</t>
+  </si>
+  <si>
+    <t>16043202008</t>
+  </si>
+  <si>
+    <t>16049850694</t>
+  </si>
+  <si>
+    <t>12503385451</t>
+  </si>
+  <si>
+    <t>12503821113</t>
+  </si>
+  <si>
+    <t>16047318166</t>
+  </si>
+  <si>
+    <t>12507233130</t>
+  </si>
+  <si>
+    <t>12507464488</t>
+  </si>
+  <si>
+    <t>17784408473</t>
+  </si>
+  <si>
+    <t>16046967440</t>
+  </si>
+  <si>
+    <t>17789536614</t>
+  </si>
+  <si>
+    <t>16049854840</t>
+  </si>
+  <si>
     <t>15/11/1990</t>
   </si>
   <si>
@@ -1168,6 +3047,216 @@
   </si>
   <si>
     <t>9/2/2008</t>
+  </si>
+  <si>
+    <t>24/2/2016</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>17/1/1996</t>
+  </si>
+  <si>
+    <t>27/11/2013</t>
+  </si>
+  <si>
+    <t>21/1/2019</t>
+  </si>
+  <si>
+    <t>8/2/2018</t>
+  </si>
+  <si>
+    <t>30/6/1990</t>
+  </si>
+  <si>
+    <t>5/6/2008</t>
+  </si>
+  <si>
+    <t>15/8/1999</t>
+  </si>
+  <si>
+    <t>18/7/1993</t>
+  </si>
+  <si>
+    <t>13/9/1994</t>
+  </si>
+  <si>
+    <t>5/9/2005</t>
+  </si>
+  <si>
+    <t>28/7/1998</t>
+  </si>
+  <si>
+    <t>14/10/2014</t>
+  </si>
+  <si>
+    <t>14/5/2012</t>
+  </si>
+  <si>
+    <t>20/6/2011</t>
+  </si>
+  <si>
+    <t>31/8/1974</t>
+  </si>
+  <si>
+    <t>14/5/2007</t>
+  </si>
+  <si>
+    <t>9/10/2012</t>
+  </si>
+  <si>
+    <t>31/10/1963</t>
+  </si>
+  <si>
+    <t>31/7/2014</t>
+  </si>
+  <si>
+    <t>28/9/2014</t>
+  </si>
+  <si>
+    <t>15/5/2017</t>
+  </si>
+  <si>
+    <t>8/6/1992</t>
+  </si>
+  <si>
+    <t>2/11/1995</t>
+  </si>
+  <si>
+    <t>11/3/2008</t>
+  </si>
+  <si>
+    <t>11/6/1992</t>
+  </si>
+  <si>
+    <t>17/3/2004</t>
+  </si>
+  <si>
+    <t>12/4/1992</t>
+  </si>
+  <si>
+    <t>27/11/2018</t>
+  </si>
+  <si>
+    <t>17/8/2012</t>
+  </si>
+  <si>
+    <t>28/5/1990</t>
+  </si>
+  <si>
+    <t>30/9/2014</t>
+  </si>
+  <si>
+    <t>27/4/2009</t>
+  </si>
+  <si>
+    <t>11/10/2004</t>
+  </si>
+  <si>
+    <t>26/5/1993</t>
+  </si>
+  <si>
+    <t>9/4/1996</t>
+  </si>
+  <si>
+    <t>20/1/2019</t>
+  </si>
+  <si>
+    <t>5/10/2006</t>
+  </si>
+  <si>
+    <t>4/6/1995</t>
+  </si>
+  <si>
+    <t>12/9/2012</t>
+  </si>
+  <si>
+    <t>29/2/2012</t>
+  </si>
+  <si>
+    <t>18/10/2006</t>
+  </si>
+  <si>
+    <t>23/9/2014</t>
+  </si>
+  <si>
+    <t>30/7/1992</t>
+  </si>
+  <si>
+    <t>31/12/1970</t>
+  </si>
+  <si>
+    <t>30/4/1984</t>
+  </si>
+  <si>
+    <t>3/4/1995</t>
+  </si>
+  <si>
+    <t>16/2/2014</t>
+  </si>
+  <si>
+    <t>23/10/2001</t>
+  </si>
+  <si>
+    <t>11/2/1993</t>
+  </si>
+  <si>
+    <t>23/3/1981</t>
+  </si>
+  <si>
+    <t>25/3/2018</t>
+  </si>
+  <si>
+    <t>7/2/2006</t>
+  </si>
+  <si>
+    <t>8/3/1995</t>
+  </si>
+  <si>
+    <t>16/10/2022</t>
+  </si>
+  <si>
+    <t>25/9/1991</t>
+  </si>
+  <si>
+    <t>28/7/2014</t>
+  </si>
+  <si>
+    <t>22/4/2013</t>
+  </si>
+  <si>
+    <t>16/2/2017</t>
+  </si>
+  <si>
+    <t>4/1/2012</t>
+  </si>
+  <si>
+    <t>238 22 St N, Lethbridge, AB T1H 3R7</t>
+  </si>
+  <si>
+    <t>27/2/2018</t>
+  </si>
+  <si>
+    <t>30/10/2012</t>
+  </si>
+  <si>
+    <t>29/2/1972</t>
+  </si>
+  <si>
+    <t>31/10/1988</t>
+  </si>
+  <si>
+    <t>4/12/2007</t>
+  </si>
+  <si>
+    <t>9/5/2021</t>
+  </si>
+  <si>
+    <t>21/4/2015</t>
+  </si>
+  <si>
+    <t>7/5/1986</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +3627,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1569,19 +3658,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>369</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>194</v>
+        <v>549</v>
       </c>
       <c r="E2" t="s">
-        <v>255</v>
+        <v>724</v>
       </c>
       <c r="F2" t="s">
-        <v>317</v>
+        <v>904</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1589,19 +3678,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>370</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>195</v>
+        <v>550</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>725</v>
       </c>
       <c r="F3" t="s">
-        <v>318</v>
+        <v>905</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1609,19 +3698,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>371</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>196</v>
+        <v>551</v>
       </c>
       <c r="E4" t="s">
-        <v>257</v>
+        <v>726</v>
       </c>
       <c r="F4" t="s">
-        <v>319</v>
+        <v>906</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1629,19 +3718,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>372</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>197</v>
+        <v>552</v>
       </c>
       <c r="E5" t="s">
-        <v>258</v>
+        <v>727</v>
       </c>
       <c r="F5" t="s">
-        <v>320</v>
+        <v>907</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1649,19 +3738,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>373</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>198</v>
+        <v>553</v>
       </c>
       <c r="E6" t="s">
-        <v>259</v>
+        <v>728</v>
       </c>
       <c r="F6" t="s">
-        <v>321</v>
+        <v>908</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1669,19 +3758,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>374</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>199</v>
+        <v>554</v>
       </c>
       <c r="E7" t="s">
-        <v>260</v>
+        <v>729</v>
       </c>
       <c r="F7" t="s">
-        <v>318</v>
+        <v>905</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1689,19 +3778,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>375</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>200</v>
+        <v>555</v>
       </c>
       <c r="E8" t="s">
-        <v>261</v>
+        <v>730</v>
       </c>
       <c r="F8" t="s">
-        <v>318</v>
+        <v>905</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1709,19 +3798,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>376</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>201</v>
+        <v>556</v>
       </c>
       <c r="E9" t="s">
-        <v>262</v>
+        <v>731</v>
       </c>
       <c r="F9" t="s">
-        <v>322</v>
+        <v>909</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1729,19 +3818,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>377</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>202</v>
+        <v>557</v>
       </c>
       <c r="E10" t="s">
-        <v>263</v>
+        <v>732</v>
       </c>
       <c r="F10" t="s">
-        <v>323</v>
+        <v>910</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1749,19 +3838,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>378</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>203</v>
+        <v>558</v>
       </c>
       <c r="E11" t="s">
-        <v>264</v>
+        <v>733</v>
       </c>
       <c r="F11" t="s">
-        <v>318</v>
+        <v>905</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1769,19 +3858,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>379</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>204</v>
+        <v>559</v>
       </c>
       <c r="E12" t="s">
-        <v>265</v>
+        <v>734</v>
       </c>
       <c r="F12" t="s">
-        <v>324</v>
+        <v>911</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1789,19 +3878,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>380</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>205</v>
+        <v>560</v>
       </c>
       <c r="E13" t="s">
-        <v>266</v>
+        <v>735</v>
       </c>
       <c r="F13" t="s">
-        <v>325</v>
+        <v>912</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1809,19 +3898,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>381</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>206</v>
+        <v>561</v>
       </c>
       <c r="E14" t="s">
-        <v>267</v>
+        <v>736</v>
       </c>
       <c r="F14" t="s">
-        <v>320</v>
+        <v>907</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1829,19 +3918,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>382</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>207</v>
+        <v>562</v>
       </c>
       <c r="E15" t="s">
-        <v>268</v>
+        <v>737</v>
       </c>
       <c r="F15" t="s">
-        <v>326</v>
+        <v>913</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1849,19 +3938,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>203</v>
       </c>
       <c r="C16" t="s">
-        <v>146</v>
+        <v>383</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>208</v>
+        <v>563</v>
       </c>
       <c r="E16" t="s">
-        <v>269</v>
+        <v>738</v>
       </c>
       <c r="F16" t="s">
-        <v>320</v>
+        <v>907</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1869,19 +3958,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>204</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>384</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>209</v>
+        <v>564</v>
       </c>
       <c r="E17" t="s">
-        <v>270</v>
+        <v>739</v>
       </c>
       <c r="F17" t="s">
-        <v>327</v>
+        <v>914</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1889,19 +3978,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>385</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>210</v>
+        <v>565</v>
       </c>
       <c r="E18" t="s">
-        <v>271</v>
+        <v>740</v>
       </c>
       <c r="F18" t="s">
-        <v>328</v>
+        <v>915</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1909,19 +3998,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>386</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>211</v>
+        <v>566</v>
       </c>
       <c r="E19" t="s">
-        <v>272</v>
+        <v>741</v>
       </c>
       <c r="F19" t="s">
-        <v>329</v>
+        <v>916</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1929,19 +4018,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>387</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>212</v>
+        <v>567</v>
       </c>
       <c r="E20" t="s">
-        <v>273</v>
+        <v>742</v>
       </c>
       <c r="F20" t="s">
-        <v>320</v>
+        <v>907</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1949,19 +4038,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>388</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>213</v>
+        <v>568</v>
       </c>
       <c r="E21" t="s">
-        <v>274</v>
+        <v>743</v>
       </c>
       <c r="F21" t="s">
-        <v>330</v>
+        <v>917</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1969,19 +4058,19 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>389</v>
       </c>
       <c r="D22" t="s">
-        <v>214</v>
+        <v>569</v>
       </c>
       <c r="E22" t="s">
-        <v>275</v>
+        <v>744</v>
       </c>
       <c r="F22" t="s">
-        <v>331</v>
+        <v>918</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1989,19 +4078,19 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="C23" t="s">
-        <v>153</v>
+        <v>390</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>215</v>
+        <v>570</v>
       </c>
       <c r="E23" t="s">
-        <v>276</v>
+        <v>745</v>
       </c>
       <c r="F23" t="s">
-        <v>332</v>
+        <v>919</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2009,19 +4098,19 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>391</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>216</v>
+        <v>571</v>
       </c>
       <c r="E24" t="s">
-        <v>277</v>
+        <v>746</v>
       </c>
       <c r="F24" t="s">
-        <v>333</v>
+        <v>920</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2029,19 +4118,19 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>392</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>217</v>
+        <v>572</v>
       </c>
       <c r="E25" t="s">
-        <v>278</v>
+        <v>747</v>
       </c>
       <c r="F25" t="s">
-        <v>334</v>
+        <v>921</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2049,19 +4138,19 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>393</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>218</v>
+        <v>573</v>
       </c>
       <c r="E26" t="s">
-        <v>279</v>
+        <v>748</v>
       </c>
       <c r="F26" t="s">
-        <v>335</v>
+        <v>922</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2069,19 +4158,19 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>394</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>219</v>
+        <v>574</v>
       </c>
       <c r="E27" t="s">
-        <v>280</v>
+        <v>749</v>
       </c>
       <c r="F27" t="s">
-        <v>336</v>
+        <v>923</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2089,19 +4178,19 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="C28" t="s">
-        <v>158</v>
+        <v>395</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>220</v>
+        <v>575</v>
       </c>
       <c r="E28" t="s">
-        <v>281</v>
+        <v>750</v>
       </c>
       <c r="F28" t="s">
-        <v>337</v>
+        <v>924</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2109,19 +4198,19 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>396</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>221</v>
+        <v>576</v>
       </c>
       <c r="E29" t="s">
-        <v>282</v>
+        <v>751</v>
       </c>
       <c r="F29" t="s">
-        <v>338</v>
+        <v>925</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2129,19 +4218,19 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>397</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>222</v>
+        <v>577</v>
       </c>
       <c r="E30" t="s">
-        <v>283</v>
+        <v>752</v>
       </c>
       <c r="F30" t="s">
-        <v>318</v>
+        <v>905</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2149,19 +4238,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="C31" t="s">
-        <v>161</v>
+        <v>398</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>223</v>
+        <v>578</v>
       </c>
       <c r="E31" t="s">
-        <v>284</v>
+        <v>753</v>
       </c>
       <c r="F31" t="s">
-        <v>339</v>
+        <v>926</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2169,19 +4258,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="C32" t="s">
-        <v>162</v>
+        <v>399</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>224</v>
+        <v>579</v>
       </c>
       <c r="E32" t="s">
-        <v>285</v>
+        <v>754</v>
       </c>
       <c r="F32" t="s">
-        <v>340</v>
+        <v>927</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2189,19 +4278,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="F33" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2209,19 +4298,19 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>221</v>
       </c>
       <c r="C34" t="s">
-        <v>163</v>
+        <v>400</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>225</v>
+        <v>580</v>
       </c>
       <c r="E34" t="s">
-        <v>286</v>
+        <v>755</v>
       </c>
       <c r="F34" t="s">
-        <v>341</v>
+        <v>928</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2229,19 +4318,19 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="C35" t="s">
-        <v>164</v>
+        <v>401</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>226</v>
+        <v>581</v>
       </c>
       <c r="E35" t="s">
-        <v>287</v>
+        <v>756</v>
       </c>
       <c r="F35" t="s">
-        <v>318</v>
+        <v>905</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2249,19 +4338,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="C36" t="s">
-        <v>165</v>
+        <v>402</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>227</v>
+        <v>582</v>
       </c>
       <c r="E36" t="s">
-        <v>288</v>
+        <v>757</v>
       </c>
       <c r="F36" t="s">
-        <v>342</v>
+        <v>929</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2269,19 +4358,19 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="C37" t="s">
-        <v>166</v>
+        <v>403</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>228</v>
+        <v>583</v>
       </c>
       <c r="E37" t="s">
-        <v>289</v>
+        <v>758</v>
       </c>
       <c r="F37" t="s">
-        <v>343</v>
+        <v>930</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2289,19 +4378,19 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>225</v>
       </c>
       <c r="C38" t="s">
-        <v>167</v>
+        <v>404</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>229</v>
+        <v>584</v>
       </c>
       <c r="E38" t="s">
-        <v>290</v>
+        <v>759</v>
       </c>
       <c r="F38" t="s">
-        <v>344</v>
+        <v>931</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2309,19 +4398,19 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>226</v>
       </c>
       <c r="C39" t="s">
-        <v>168</v>
+        <v>405</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>230</v>
+        <v>585</v>
       </c>
       <c r="E39" t="s">
-        <v>291</v>
+        <v>760</v>
       </c>
       <c r="F39" t="s">
-        <v>345</v>
+        <v>932</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2329,19 +4418,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>227</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>406</v>
       </c>
       <c r="D40" t="s">
-        <v>231</v>
+        <v>586</v>
       </c>
       <c r="E40" t="s">
-        <v>292</v>
+        <v>761</v>
       </c>
       <c r="F40" t="s">
-        <v>346</v>
+        <v>933</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2349,19 +4438,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>228</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>407</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>232</v>
+        <v>587</v>
       </c>
       <c r="E41" t="s">
-        <v>293</v>
+        <v>762</v>
       </c>
       <c r="F41" t="s">
-        <v>318</v>
+        <v>905</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2369,19 +4458,19 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>229</v>
       </c>
       <c r="C42" t="s">
-        <v>171</v>
+        <v>408</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>233</v>
+        <v>588</v>
       </c>
       <c r="E42" t="s">
-        <v>294</v>
+        <v>763</v>
       </c>
       <c r="F42" t="s">
-        <v>347</v>
+        <v>934</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2389,19 +4478,19 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="C43" t="s">
-        <v>172</v>
+        <v>409</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>234</v>
+        <v>589</v>
       </c>
       <c r="E43" t="s">
-        <v>295</v>
+        <v>764</v>
       </c>
       <c r="F43" t="s">
-        <v>318</v>
+        <v>905</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2409,19 +4498,19 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="C44" t="s">
-        <v>173</v>
+        <v>410</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>235</v>
+        <v>590</v>
       </c>
       <c r="E44" t="s">
-        <v>296</v>
+        <v>765</v>
       </c>
       <c r="F44" t="s">
-        <v>348</v>
+        <v>935</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2429,19 +4518,19 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="C45" t="s">
-        <v>174</v>
+        <v>411</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>236</v>
+        <v>591</v>
       </c>
       <c r="E45" t="s">
-        <v>297</v>
+        <v>766</v>
       </c>
       <c r="F45" t="s">
-        <v>349</v>
+        <v>936</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2449,19 +4538,19 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>233</v>
       </c>
       <c r="C46" t="s">
-        <v>175</v>
+        <v>412</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>237</v>
+        <v>592</v>
       </c>
       <c r="E46" t="s">
-        <v>298</v>
+        <v>767</v>
       </c>
       <c r="F46" t="s">
-        <v>350</v>
+        <v>937</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2469,19 +4558,19 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>234</v>
       </c>
       <c r="C47" t="s">
-        <v>176</v>
+        <v>413</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>238</v>
+        <v>593</v>
       </c>
       <c r="E47" t="s">
-        <v>299</v>
+        <v>768</v>
       </c>
       <c r="F47" t="s">
-        <v>351</v>
+        <v>938</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2489,19 +4578,19 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>235</v>
       </c>
       <c r="C48" t="s">
-        <v>177</v>
+        <v>414</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>239</v>
+        <v>594</v>
       </c>
       <c r="E48" t="s">
-        <v>300</v>
+        <v>769</v>
       </c>
       <c r="F48" t="s">
-        <v>352</v>
+        <v>939</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2509,19 +4598,19 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="C49" t="s">
-        <v>178</v>
+        <v>415</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>240</v>
+        <v>595</v>
       </c>
       <c r="E49" t="s">
-        <v>301</v>
+        <v>770</v>
       </c>
       <c r="F49" t="s">
-        <v>318</v>
+        <v>905</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2529,19 +4618,19 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>237</v>
       </c>
       <c r="C50" t="s">
-        <v>179</v>
+        <v>416</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>241</v>
+        <v>596</v>
       </c>
       <c r="E50" t="s">
-        <v>302</v>
+        <v>771</v>
       </c>
       <c r="F50" t="s">
-        <v>318</v>
+        <v>905</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2549,19 +4638,19 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
       <c r="C51" t="s">
-        <v>180</v>
+        <v>417</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>242</v>
+        <v>597</v>
       </c>
       <c r="E51" t="s">
-        <v>303</v>
+        <v>772</v>
       </c>
       <c r="F51" t="s">
-        <v>353</v>
+        <v>940</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2569,19 +4658,19 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>239</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>418</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>243</v>
+        <v>598</v>
       </c>
       <c r="E52" t="s">
-        <v>304</v>
+        <v>773</v>
       </c>
       <c r="F52" t="s">
-        <v>354</v>
+        <v>941</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2589,19 +4678,19 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C53" t="s">
-        <v>182</v>
+        <v>419</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>244</v>
+        <v>599</v>
       </c>
       <c r="E53" t="s">
-        <v>305</v>
+        <v>774</v>
       </c>
       <c r="F53" t="s">
-        <v>318</v>
+        <v>905</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2609,19 +4698,19 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>241</v>
       </c>
       <c r="C54" t="s">
-        <v>183</v>
+        <v>420</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>245</v>
+        <v>600</v>
       </c>
       <c r="E54" t="s">
-        <v>306</v>
+        <v>775</v>
       </c>
       <c r="F54" t="s">
-        <v>355</v>
+        <v>942</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2629,19 +4718,19 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>242</v>
       </c>
       <c r="C55" t="s">
-        <v>184</v>
+        <v>421</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>246</v>
+        <v>601</v>
       </c>
       <c r="E55" t="s">
-        <v>307</v>
+        <v>776</v>
       </c>
       <c r="F55" t="s">
-        <v>356</v>
+        <v>943</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2649,19 +4738,19 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>243</v>
       </c>
       <c r="C56" t="s">
-        <v>185</v>
+        <v>422</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>247</v>
+        <v>602</v>
       </c>
       <c r="E56" t="s">
-        <v>308</v>
+        <v>777</v>
       </c>
       <c r="F56" t="s">
-        <v>357</v>
+        <v>944</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2669,19 +4758,19 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="C57" t="s">
-        <v>186</v>
+        <v>423</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>248</v>
+        <v>603</v>
       </c>
       <c r="E57" t="s">
-        <v>309</v>
+        <v>778</v>
       </c>
       <c r="F57" t="s">
-        <v>358</v>
+        <v>945</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2689,19 +4778,19 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="C58" t="s">
-        <v>187</v>
+        <v>424</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>198</v>
+        <v>553</v>
       </c>
       <c r="E58" t="s">
-        <v>310</v>
+        <v>779</v>
       </c>
       <c r="F58" t="s">
-        <v>359</v>
+        <v>946</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2709,19 +4798,19 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="C59" t="s">
-        <v>188</v>
+        <v>425</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>249</v>
+        <v>604</v>
       </c>
       <c r="E59" t="s">
-        <v>311</v>
+        <v>780</v>
       </c>
       <c r="F59" t="s">
-        <v>318</v>
+        <v>905</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2729,19 +4818,19 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>247</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>426</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>250</v>
+        <v>605</v>
       </c>
       <c r="E60" t="s">
-        <v>312</v>
+        <v>781</v>
       </c>
       <c r="F60" t="s">
-        <v>360</v>
+        <v>947</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2749,19 +4838,19 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="C61" t="s">
-        <v>190</v>
+        <v>427</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>251</v>
+        <v>606</v>
       </c>
       <c r="E61" t="s">
-        <v>313</v>
+        <v>782</v>
       </c>
       <c r="F61" t="s">
-        <v>361</v>
+        <v>948</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2769,19 +4858,19 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C62" t="s">
-        <v>191</v>
+        <v>428</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>252</v>
+        <v>607</v>
       </c>
       <c r="E62" t="s">
-        <v>314</v>
+        <v>783</v>
       </c>
       <c r="F62" t="s">
-        <v>318</v>
+        <v>905</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2789,19 +4878,19 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="C63" t="s">
-        <v>192</v>
+        <v>429</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>253</v>
+        <v>608</v>
       </c>
       <c r="E63" t="s">
-        <v>315</v>
+        <v>784</v>
       </c>
       <c r="F63" t="s">
-        <v>362</v>
+        <v>949</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2809,19 +4898,2419 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
+        <v>251</v>
+      </c>
+      <c r="C64" t="s">
+        <v>430</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E64" t="s">
+        <v>785</v>
+      </c>
+      <c r="F64" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>252</v>
+      </c>
+      <c r="C65" t="s">
+        <v>431</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E65" t="s">
+        <v>786</v>
+      </c>
+      <c r="F65" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>253</v>
+      </c>
+      <c r="C66" t="s">
+        <v>432</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E66" t="s">
+        <v>787</v>
+      </c>
+      <c r="F66" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>254</v>
+      </c>
+      <c r="C67" t="s">
+        <v>433</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E67" t="s">
+        <v>788</v>
+      </c>
+      <c r="F67" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>255</v>
+      </c>
+      <c r="C68" t="s">
+        <v>434</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="E68" t="s">
+        <v>789</v>
+      </c>
+      <c r="F68" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" t="s">
+        <v>256</v>
+      </c>
+      <c r="C69" t="s">
+        <v>435</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E69" t="s">
+        <v>790</v>
+      </c>
+      <c r="F69" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C70" t="s">
+        <v>436</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E70" t="s">
+        <v>791</v>
+      </c>
+      <c r="F70" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>258</v>
+      </c>
+      <c r="C71" t="s">
+        <v>437</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="E71" t="s">
+        <v>792</v>
+      </c>
+      <c r="F71" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" t="s">
+        <v>259</v>
+      </c>
+      <c r="C72" t="s">
+        <v>438</v>
+      </c>
+      <c r="D72" t="s">
+        <v>617</v>
+      </c>
+      <c r="E72" t="s">
+        <v>793</v>
+      </c>
+      <c r="F72" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>260</v>
+      </c>
+      <c r="C73" t="s">
+        <v>439</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E73" t="s">
+        <v>794</v>
+      </c>
+      <c r="F73" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>261</v>
+      </c>
+      <c r="C74" t="s">
+        <v>440</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="E74" t="s">
+        <v>795</v>
+      </c>
+      <c r="F74" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>262</v>
+      </c>
+      <c r="C75" t="s">
+        <v>441</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="E75" t="s">
+        <v>796</v>
+      </c>
+      <c r="F75" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>263</v>
+      </c>
+      <c r="C76" t="s">
+        <v>442</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E76" t="s">
+        <v>797</v>
+      </c>
+      <c r="F76" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>264</v>
+      </c>
+      <c r="C77" t="s">
+        <v>443</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E77" t="s">
+        <v>798</v>
+      </c>
+      <c r="F77" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" t="s">
+        <v>265</v>
+      </c>
+      <c r="C78" t="s">
+        <v>444</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E78" t="s">
+        <v>799</v>
+      </c>
+      <c r="F78" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>266</v>
+      </c>
+      <c r="C79" t="s">
+        <v>445</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E79" t="s">
+        <v>800</v>
+      </c>
+      <c r="F79" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>267</v>
+      </c>
+      <c r="C80" t="s">
+        <v>446</v>
+      </c>
+      <c r="D80" t="s">
+        <v>625</v>
+      </c>
+      <c r="E80" t="s">
+        <v>801</v>
+      </c>
+      <c r="F80" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" t="s">
+        <v>268</v>
+      </c>
+      <c r="C81" t="s">
+        <v>447</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E81" t="s">
+        <v>802</v>
+      </c>
+      <c r="F81" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" t="s">
+        <v>269</v>
+      </c>
+      <c r="C82" t="s">
+        <v>448</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="E82" t="s">
+        <v>803</v>
+      </c>
+      <c r="F82" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" t="s">
+        <v>270</v>
+      </c>
+      <c r="C83" t="s">
+        <v>449</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="E83" t="s">
+        <v>804</v>
+      </c>
+      <c r="F83" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" t="s">
+        <v>271</v>
+      </c>
+      <c r="C84" t="s">
+        <v>450</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E84" t="s">
+        <v>805</v>
+      </c>
+      <c r="F84" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" t="s">
+        <v>272</v>
+      </c>
+      <c r="C85" t="s">
+        <v>451</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E85" t="s">
+        <v>806</v>
+      </c>
+      <c r="F85" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" t="s">
+        <v>273</v>
+      </c>
+      <c r="C86" t="s">
+        <v>452</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="E86" t="s">
+        <v>807</v>
+      </c>
+      <c r="F86" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" t="s">
+        <v>274</v>
+      </c>
+      <c r="C87" t="s">
+        <v>453</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="E87" t="s">
+        <v>808</v>
+      </c>
+      <c r="F87" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" t="s">
+        <v>275</v>
+      </c>
+      <c r="C88" t="s">
+        <v>454</v>
+      </c>
+      <c r="D88" t="s">
+        <v>633</v>
+      </c>
+      <c r="E88" t="s">
+        <v>809</v>
+      </c>
+      <c r="F88" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" t="s">
+        <v>276</v>
+      </c>
+      <c r="C89" t="s">
+        <v>455</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="E89" t="s">
+        <v>810</v>
+      </c>
+      <c r="F89" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" t="s">
+        <v>277</v>
+      </c>
+      <c r="C90" t="s">
+        <v>456</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="E90" t="s">
+        <v>811</v>
+      </c>
+      <c r="F90" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" t="s">
+        <v>278</v>
+      </c>
+      <c r="C91" t="s">
+        <v>457</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="E91" t="s">
+        <v>812</v>
+      </c>
+      <c r="F91" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" t="s">
+        <v>279</v>
+      </c>
+      <c r="C92" t="s">
+        <v>458</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="E92" t="s">
+        <v>813</v>
+      </c>
+      <c r="F92" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" t="s">
+        <v>280</v>
+      </c>
+      <c r="C93" t="s">
+        <v>459</v>
+      </c>
+      <c r="D93" t="s">
+        <v>638</v>
+      </c>
+      <c r="E93" t="s">
+        <v>814</v>
+      </c>
+      <c r="F93" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" t="s">
+        <v>281</v>
+      </c>
+      <c r="C94" t="s">
+        <v>460</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E94" t="s">
+        <v>815</v>
+      </c>
+      <c r="F94" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" t="s">
+        <v>282</v>
+      </c>
+      <c r="C95" t="s">
+        <v>461</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E95" t="s">
+        <v>816</v>
+      </c>
+      <c r="F95" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" t="s">
+        <v>283</v>
+      </c>
+      <c r="C96" t="s">
+        <v>462</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E96" t="s">
+        <v>817</v>
+      </c>
+      <c r="F96" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" t="s">
+        <v>284</v>
+      </c>
+      <c r="C97" t="s">
+        <v>463</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E97" t="s">
+        <v>818</v>
+      </c>
+      <c r="F97" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" t="s">
+        <v>285</v>
+      </c>
+      <c r="C98" t="s">
+        <v>464</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="E98" t="s">
+        <v>819</v>
+      </c>
+      <c r="F98" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" t="s">
+        <v>286</v>
+      </c>
+      <c r="C99" t="s">
+        <v>465</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="E99" t="s">
+        <v>820</v>
+      </c>
+      <c r="F99" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" t="s">
+        <v>287</v>
+      </c>
+      <c r="C100" t="s">
+        <v>466</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="E100" t="s">
+        <v>821</v>
+      </c>
+      <c r="F100" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" t="s">
+        <v>288</v>
+      </c>
+      <c r="C101" t="s">
+        <v>467</v>
+      </c>
+      <c r="D101" t="s">
+        <v>646</v>
+      </c>
+      <c r="E101" t="s">
+        <v>822</v>
+      </c>
+      <c r="F101" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" t="s">
+        <v>289</v>
+      </c>
+      <c r="C102" t="s">
+        <v>468</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E102" t="s">
+        <v>823</v>
+      </c>
+      <c r="F102" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" t="s">
+        <v>290</v>
+      </c>
+      <c r="C103" t="s">
+        <v>469</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="E103" t="s">
+        <v>824</v>
+      </c>
+      <c r="F103" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" t="s">
+        <v>291</v>
+      </c>
+      <c r="C104" t="s">
+        <v>470</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="E104" t="s">
+        <v>825</v>
+      </c>
+      <c r="F104" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" t="s">
+        <v>245</v>
+      </c>
+      <c r="C105" t="s">
+        <v>471</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E105" t="s">
+        <v>826</v>
+      </c>
+      <c r="F105" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" t="s">
+        <v>292</v>
+      </c>
+      <c r="C106" t="s">
+        <v>472</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="E106" t="s">
+        <v>827</v>
+      </c>
+      <c r="F106" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107" t="s">
+        <v>220</v>
+      </c>
+      <c r="D107" t="s">
+        <v>220</v>
+      </c>
+      <c r="E107" t="s">
+        <v>220</v>
+      </c>
+      <c r="F107" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" t="s">
+        <v>293</v>
+      </c>
+      <c r="C108" t="s">
+        <v>473</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="E108" t="s">
+        <v>828</v>
+      </c>
+      <c r="F108" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" t="s">
+        <v>294</v>
+      </c>
+      <c r="C109" t="s">
+        <v>474</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="E109" t="s">
+        <v>829</v>
+      </c>
+      <c r="F109" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" t="s">
+        <v>295</v>
+      </c>
+      <c r="C110" t="s">
+        <v>475</v>
+      </c>
+      <c r="D110" t="s">
+        <v>653</v>
+      </c>
+      <c r="E110" t="s">
+        <v>830</v>
+      </c>
+      <c r="F110" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" t="s">
+        <v>296</v>
+      </c>
+      <c r="C111" t="s">
+        <v>476</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E111" t="s">
+        <v>831</v>
+      </c>
+      <c r="F111" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" t="s">
+        <v>297</v>
+      </c>
+      <c r="C112" t="s">
+        <v>477</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E112" t="s">
+        <v>832</v>
+      </c>
+      <c r="F112" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" t="s">
+        <v>298</v>
+      </c>
+      <c r="C113" t="s">
+        <v>478</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E113" t="s">
+        <v>833</v>
+      </c>
+      <c r="F113" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" t="s">
+        <v>299</v>
+      </c>
+      <c r="C114" t="s">
+        <v>479</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="E114" t="s">
+        <v>834</v>
+      </c>
+      <c r="F114" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" t="s">
+        <v>220</v>
+      </c>
+      <c r="C115" t="s">
+        <v>220</v>
+      </c>
+      <c r="D115" t="s">
+        <v>220</v>
+      </c>
+      <c r="E115" t="s">
+        <v>220</v>
+      </c>
+      <c r="F115" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" t="s">
+        <v>300</v>
+      </c>
+      <c r="C116" t="s">
+        <v>480</v>
+      </c>
+      <c r="D116" t="s">
+        <v>658</v>
+      </c>
+      <c r="E116" t="s">
+        <v>835</v>
+      </c>
+      <c r="F116" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" t="s">
+        <v>301</v>
+      </c>
+      <c r="C117" t="s">
+        <v>481</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="E117" t="s">
+        <v>836</v>
+      </c>
+      <c r="F117" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" t="s">
+        <v>302</v>
+      </c>
+      <c r="C118" t="s">
+        <v>482</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E118" t="s">
+        <v>837</v>
+      </c>
+      <c r="F118" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" t="s">
+        <v>303</v>
+      </c>
+      <c r="C119" t="s">
+        <v>483</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="E119" t="s">
+        <v>838</v>
+      </c>
+      <c r="F119" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" t="s">
+        <v>304</v>
+      </c>
+      <c r="C120" t="s">
+        <v>484</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="E120" t="s">
+        <v>839</v>
+      </c>
+      <c r="F120" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" t="s">
+        <v>305</v>
+      </c>
+      <c r="C121" t="s">
+        <v>485</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="E121" t="s">
+        <v>840</v>
+      </c>
+      <c r="F121" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" t="s">
+        <v>306</v>
+      </c>
+      <c r="C122" t="s">
+        <v>486</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="E122" t="s">
+        <v>841</v>
+      </c>
+      <c r="F122" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" t="s">
+        <v>307</v>
+      </c>
+      <c r="C123" t="s">
+        <v>487</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E123" t="s">
+        <v>842</v>
+      </c>
+      <c r="F123" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" t="s">
+        <v>308</v>
+      </c>
+      <c r="C124" t="s">
+        <v>488</v>
+      </c>
+      <c r="D124" t="s">
+        <v>666</v>
+      </c>
+      <c r="E124" t="s">
+        <v>843</v>
+      </c>
+      <c r="F124" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" t="s">
+        <v>309</v>
+      </c>
+      <c r="C125" t="s">
+        <v>489</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E125" t="s">
+        <v>844</v>
+      </c>
+      <c r="F125" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" t="s">
+        <v>310</v>
+      </c>
+      <c r="C126" t="s">
+        <v>490</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="E126" t="s">
+        <v>845</v>
+      </c>
+      <c r="F126" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C64" t="s">
-        <v>193</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="B127" t="s">
+        <v>311</v>
+      </c>
+      <c r="C127" t="s">
+        <v>491</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E127" t="s">
+        <v>846</v>
+      </c>
+      <c r="F127" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" t="s">
+        <v>312</v>
+      </c>
+      <c r="C128" t="s">
+        <v>492</v>
+      </c>
+      <c r="D128" t="s">
+        <v>670</v>
+      </c>
+      <c r="E128" t="s">
+        <v>847</v>
+      </c>
+      <c r="F128" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" t="s">
+        <v>313</v>
+      </c>
+      <c r="C129" t="s">
+        <v>493</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E129" t="s">
+        <v>848</v>
+      </c>
+      <c r="F129" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130" t="s">
+        <v>314</v>
+      </c>
+      <c r="C130" t="s">
+        <v>494</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="E130" t="s">
+        <v>849</v>
+      </c>
+      <c r="F130" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131" t="s">
+        <v>315</v>
+      </c>
+      <c r="C131" t="s">
+        <v>495</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E131" t="s">
+        <v>850</v>
+      </c>
+      <c r="F131" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" t="s">
         <v>316</v>
       </c>
-      <c r="F64" t="s">
+      <c r="C132" t="s">
+        <v>496</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="E132" t="s">
+        <v>851</v>
+      </c>
+      <c r="F132" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" t="s">
+        <v>317</v>
+      </c>
+      <c r="C133" t="s">
+        <v>497</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E133" t="s">
+        <v>852</v>
+      </c>
+      <c r="F133" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134" t="s">
+        <v>318</v>
+      </c>
+      <c r="C134" t="s">
+        <v>498</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="E134" t="s">
+        <v>853</v>
+      </c>
+      <c r="F134" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135" t="s">
+        <v>319</v>
+      </c>
+      <c r="C135" t="s">
+        <v>499</v>
+      </c>
+      <c r="D135" t="s">
+        <v>676</v>
+      </c>
+      <c r="E135" t="s">
+        <v>854</v>
+      </c>
+      <c r="F135" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" t="s">
+        <v>320</v>
+      </c>
+      <c r="C136" t="s">
+        <v>500</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="E136" t="s">
+        <v>855</v>
+      </c>
+      <c r="F136" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137" t="s">
+        <v>321</v>
+      </c>
+      <c r="C137" t="s">
+        <v>501</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="E137" t="s">
+        <v>856</v>
+      </c>
+      <c r="F137" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B138" t="s">
+        <v>322</v>
+      </c>
+      <c r="C138" t="s">
+        <v>502</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E138" t="s">
+        <v>857</v>
+      </c>
+      <c r="F138" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" t="s">
+        <v>323</v>
+      </c>
+      <c r="C139" t="s">
+        <v>503</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="E139" t="s">
+        <v>858</v>
+      </c>
+      <c r="F139" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140" t="s">
+        <v>324</v>
+      </c>
+      <c r="C140" t="s">
+        <v>504</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="E140" t="s">
+        <v>859</v>
+      </c>
+      <c r="F140" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141" t="s">
+        <v>325</v>
+      </c>
+      <c r="C141" t="s">
+        <v>505</v>
+      </c>
+      <c r="D141" t="s">
+        <v>682</v>
+      </c>
+      <c r="E141" t="s">
+        <v>860</v>
+      </c>
+      <c r="F141" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142" t="s">
+        <v>326</v>
+      </c>
+      <c r="C142" t="s">
+        <v>506</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="E142" t="s">
+        <v>861</v>
+      </c>
+      <c r="F142" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143" t="s">
+        <v>327</v>
+      </c>
+      <c r="C143" t="s">
+        <v>507</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E143" t="s">
+        <v>862</v>
+      </c>
+      <c r="F143" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144" t="s">
+        <v>328</v>
+      </c>
+      <c r="C144" t="s">
+        <v>508</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="E144" t="s">
+        <v>863</v>
+      </c>
+      <c r="F144" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145" t="s">
+        <v>329</v>
+      </c>
+      <c r="C145" t="s">
+        <v>509</v>
+      </c>
+      <c r="D145" t="s">
+        <v>686</v>
+      </c>
+      <c r="E145" t="s">
+        <v>864</v>
+      </c>
+      <c r="F145" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146" t="s">
+        <v>330</v>
+      </c>
+      <c r="C146" t="s">
+        <v>510</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E146" t="s">
+        <v>865</v>
+      </c>
+      <c r="F146" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B147" t="s">
+        <v>331</v>
+      </c>
+      <c r="C147" t="s">
+        <v>511</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="E147" t="s">
+        <v>866</v>
+      </c>
+      <c r="F147" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B148" t="s">
+        <v>332</v>
+      </c>
+      <c r="C148" t="s">
+        <v>512</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E148" t="s">
+        <v>867</v>
+      </c>
+      <c r="F148" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B149" t="s">
+        <v>333</v>
+      </c>
+      <c r="C149" t="s">
+        <v>513</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="E149" t="s">
+        <v>868</v>
+      </c>
+      <c r="F149" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150" t="s">
+        <v>334</v>
+      </c>
+      <c r="C150" t="s">
+        <v>514</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E150" t="s">
+        <v>869</v>
+      </c>
+      <c r="F150" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151" t="s">
+        <v>335</v>
+      </c>
+      <c r="C151" t="s">
+        <v>515</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="E151" t="s">
+        <v>870</v>
+      </c>
+      <c r="F151" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B152" t="s">
+        <v>336</v>
+      </c>
+      <c r="C152" t="s">
+        <v>516</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="E152" t="s">
+        <v>871</v>
+      </c>
+      <c r="F152" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B153" t="s">
+        <v>337</v>
+      </c>
+      <c r="C153" t="s">
+        <v>517</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="E153" t="s">
+        <v>872</v>
+      </c>
+      <c r="F153" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" t="s">
+        <v>338</v>
+      </c>
+      <c r="C154" t="s">
+        <v>518</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="E154" t="s">
+        <v>873</v>
+      </c>
+      <c r="F154" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B155" t="s">
+        <v>339</v>
+      </c>
+      <c r="C155" t="s">
+        <v>519</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="E155" t="s">
+        <v>874</v>
+      </c>
+      <c r="F155" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B156" t="s">
+        <v>340</v>
+      </c>
+      <c r="C156" t="s">
+        <v>520</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="E156" t="s">
+        <v>875</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B157" t="s">
+        <v>341</v>
+      </c>
+      <c r="C157" t="s">
+        <v>521</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="E157" t="s">
+        <v>876</v>
+      </c>
+      <c r="F157" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158" t="s">
+        <v>342</v>
+      </c>
+      <c r="C158" t="s">
+        <v>522</v>
+      </c>
+      <c r="D158" t="s">
+        <v>698</v>
+      </c>
+      <c r="E158" t="s">
+        <v>877</v>
+      </c>
+      <c r="F158" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B159" t="s">
+        <v>343</v>
+      </c>
+      <c r="C159" t="s">
+        <v>523</v>
+      </c>
+      <c r="D159" t="s">
+        <v>699</v>
+      </c>
+      <c r="E159" t="s">
+        <v>878</v>
+      </c>
+      <c r="F159" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B160" t="s">
+        <v>344</v>
+      </c>
+      <c r="C160" t="s">
+        <v>524</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="E160" t="s">
+        <v>879</v>
+      </c>
+      <c r="F160" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B161" t="s">
+        <v>345</v>
+      </c>
+      <c r="C161" t="s">
+        <v>525</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="E161" t="s">
+        <v>880</v>
+      </c>
+      <c r="F161" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162" t="s">
+        <v>346</v>
+      </c>
+      <c r="C162" t="s">
+        <v>526</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="E162" t="s">
+        <v>881</v>
+      </c>
+      <c r="F162" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163" t="s">
+        <v>347</v>
+      </c>
+      <c r="C163" t="s">
+        <v>527</v>
+      </c>
+      <c r="D163" t="s">
+        <v>703</v>
+      </c>
+      <c r="E163" t="s">
+        <v>882</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164" t="s">
+        <v>348</v>
+      </c>
+      <c r="C164" t="s">
+        <v>528</v>
+      </c>
+      <c r="D164" t="s">
+        <v>704</v>
+      </c>
+      <c r="E164" t="s">
+        <v>883</v>
+      </c>
+      <c r="F164" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B165" t="s">
+        <v>349</v>
+      </c>
+      <c r="C165" t="s">
+        <v>529</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="E165" t="s">
+        <v>884</v>
+      </c>
+      <c r="F165" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166" t="s">
+        <v>350</v>
+      </c>
+      <c r="C166" t="s">
+        <v>530</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="E166" t="s">
+        <v>885</v>
+      </c>
+      <c r="F166" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B167" t="s">
+        <v>351</v>
+      </c>
+      <c r="C167" t="s">
+        <v>531</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="E167" t="s">
+        <v>886</v>
+      </c>
+      <c r="F167" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B168" t="s">
+        <v>352</v>
+      </c>
+      <c r="C168" t="s">
+        <v>532</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="E168" t="s">
+        <v>887</v>
+      </c>
+      <c r="F168" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B169" t="s">
+        <v>353</v>
+      </c>
+      <c r="C169" t="s">
+        <v>533</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E169" t="s">
+        <v>888</v>
+      </c>
+      <c r="F169" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B170" t="s">
+        <v>354</v>
+      </c>
+      <c r="C170" t="s">
+        <v>534</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="E170" t="s">
+        <v>889</v>
+      </c>
+      <c r="F170" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B171" t="s">
+        <v>355</v>
+      </c>
+      <c r="C171" t="s">
+        <v>535</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="E171" t="s">
+        <v>890</v>
+      </c>
+      <c r="F171" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B172" t="s">
+        <v>356</v>
+      </c>
+      <c r="C172" t="s">
+        <v>536</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="E172" t="s">
+        <v>891</v>
+      </c>
+      <c r="F172" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B173" t="s">
+        <v>357</v>
+      </c>
+      <c r="C173" t="s">
+        <v>537</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="E173" t="s">
+        <v>892</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" t="s">
+        <v>358</v>
+      </c>
+      <c r="C174" t="s">
+        <v>538</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="E174" t="s">
+        <v>893</v>
+      </c>
+      <c r="F174" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B175" t="s">
+        <v>359</v>
+      </c>
+      <c r="C175" t="s">
+        <v>539</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="E175" t="s">
+        <v>894</v>
+      </c>
+      <c r="F175" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B176" t="s">
+        <v>360</v>
+      </c>
+      <c r="C176" t="s">
+        <v>540</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="E176" t="s">
+        <v>895</v>
+      </c>
+      <c r="F176" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B177" t="s">
+        <v>361</v>
+      </c>
+      <c r="C177" t="s">
+        <v>541</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="E177" t="s">
+        <v>896</v>
+      </c>
+      <c r="F177" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B178" t="s">
+        <v>362</v>
+      </c>
+      <c r="C178" t="s">
+        <v>542</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="E178" t="s">
+        <v>897</v>
+      </c>
+      <c r="F178" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B179" t="s">
         <v>363</v>
+      </c>
+      <c r="C179" t="s">
+        <v>543</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="E179" t="s">
+        <v>898</v>
+      </c>
+      <c r="F179" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B180" t="s">
+        <v>364</v>
+      </c>
+      <c r="C180" t="s">
+        <v>544</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="E180" t="s">
+        <v>899</v>
+      </c>
+      <c r="F180" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B181" t="s">
+        <v>365</v>
+      </c>
+      <c r="C181" t="s">
+        <v>545</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="E181" t="s">
+        <v>900</v>
+      </c>
+      <c r="F181" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B182" t="s">
+        <v>366</v>
+      </c>
+      <c r="C182" t="s">
+        <v>546</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="E182" t="s">
+        <v>901</v>
+      </c>
+      <c r="F182" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B183" t="s">
+        <v>367</v>
+      </c>
+      <c r="C183" t="s">
+        <v>547</v>
+      </c>
+      <c r="D183" t="s">
+        <v>722</v>
+      </c>
+      <c r="E183" t="s">
+        <v>902</v>
+      </c>
+      <c r="F183" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B184" t="s">
+        <v>368</v>
+      </c>
+      <c r="C184" t="s">
+        <v>548</v>
+      </c>
+      <c r="D184" t="s">
+        <v>723</v>
+      </c>
+      <c r="E184" t="s">
+        <v>903</v>
+      </c>
+      <c r="F184" t="s">
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -2949,6 +7438,226 @@
     <hyperlink ref="D63" r:id="rId121"/>
     <hyperlink ref="A64" r:id="rId122"/>
     <hyperlink ref="D64" r:id="rId123"/>
+    <hyperlink ref="A65" r:id="rId124"/>
+    <hyperlink ref="D65" r:id="rId125"/>
+    <hyperlink ref="A66" r:id="rId126"/>
+    <hyperlink ref="D66" r:id="rId127"/>
+    <hyperlink ref="A67" r:id="rId128"/>
+    <hyperlink ref="D67" r:id="rId129"/>
+    <hyperlink ref="A68" r:id="rId130"/>
+    <hyperlink ref="D68" r:id="rId131"/>
+    <hyperlink ref="A69" r:id="rId132"/>
+    <hyperlink ref="D69" r:id="rId133"/>
+    <hyperlink ref="A70" r:id="rId134"/>
+    <hyperlink ref="D70" r:id="rId135"/>
+    <hyperlink ref="A71" r:id="rId136"/>
+    <hyperlink ref="D71" r:id="rId137"/>
+    <hyperlink ref="A72" r:id="rId138"/>
+    <hyperlink ref="A73" r:id="rId139"/>
+    <hyperlink ref="D73" r:id="rId140"/>
+    <hyperlink ref="A74" r:id="rId141"/>
+    <hyperlink ref="D74" r:id="rId142"/>
+    <hyperlink ref="A75" r:id="rId143"/>
+    <hyperlink ref="D75" r:id="rId144"/>
+    <hyperlink ref="A76" r:id="rId145"/>
+    <hyperlink ref="D76" r:id="rId146"/>
+    <hyperlink ref="A77" r:id="rId147"/>
+    <hyperlink ref="D77" r:id="rId148"/>
+    <hyperlink ref="A78" r:id="rId149"/>
+    <hyperlink ref="D78" r:id="rId150"/>
+    <hyperlink ref="A79" r:id="rId151"/>
+    <hyperlink ref="D79" r:id="rId152"/>
+    <hyperlink ref="A80" r:id="rId153"/>
+    <hyperlink ref="A81" r:id="rId154"/>
+    <hyperlink ref="D81" r:id="rId155"/>
+    <hyperlink ref="A82" r:id="rId156"/>
+    <hyperlink ref="D82" r:id="rId157"/>
+    <hyperlink ref="A83" r:id="rId158"/>
+    <hyperlink ref="D83" r:id="rId159"/>
+    <hyperlink ref="A84" r:id="rId160"/>
+    <hyperlink ref="D84" r:id="rId161"/>
+    <hyperlink ref="A85" r:id="rId162"/>
+    <hyperlink ref="D85" r:id="rId163"/>
+    <hyperlink ref="A86" r:id="rId164"/>
+    <hyperlink ref="D86" r:id="rId165"/>
+    <hyperlink ref="A87" r:id="rId166"/>
+    <hyperlink ref="D87" r:id="rId167"/>
+    <hyperlink ref="A88" r:id="rId168"/>
+    <hyperlink ref="A89" r:id="rId169"/>
+    <hyperlink ref="D89" r:id="rId170"/>
+    <hyperlink ref="A90" r:id="rId171"/>
+    <hyperlink ref="D90" r:id="rId172"/>
+    <hyperlink ref="A91" r:id="rId173"/>
+    <hyperlink ref="D91" r:id="rId174"/>
+    <hyperlink ref="A92" r:id="rId175"/>
+    <hyperlink ref="D92" r:id="rId176"/>
+    <hyperlink ref="A93" r:id="rId177"/>
+    <hyperlink ref="A94" r:id="rId178"/>
+    <hyperlink ref="D94" r:id="rId179"/>
+    <hyperlink ref="A95" r:id="rId180"/>
+    <hyperlink ref="D95" r:id="rId181"/>
+    <hyperlink ref="A96" r:id="rId182"/>
+    <hyperlink ref="D96" r:id="rId183"/>
+    <hyperlink ref="A97" r:id="rId184"/>
+    <hyperlink ref="D97" r:id="rId185"/>
+    <hyperlink ref="A98" r:id="rId186"/>
+    <hyperlink ref="D98" r:id="rId187"/>
+    <hyperlink ref="A99" r:id="rId188"/>
+    <hyperlink ref="D99" r:id="rId189"/>
+    <hyperlink ref="A100" r:id="rId190"/>
+    <hyperlink ref="D100" r:id="rId191"/>
+    <hyperlink ref="A101" r:id="rId192"/>
+    <hyperlink ref="A102" r:id="rId193"/>
+    <hyperlink ref="D102" r:id="rId194"/>
+    <hyperlink ref="A103" r:id="rId195"/>
+    <hyperlink ref="D103" r:id="rId196"/>
+    <hyperlink ref="A104" r:id="rId197"/>
+    <hyperlink ref="D104" r:id="rId198"/>
+    <hyperlink ref="A105" r:id="rId199"/>
+    <hyperlink ref="D105" r:id="rId200"/>
+    <hyperlink ref="A106" r:id="rId201"/>
+    <hyperlink ref="D106" r:id="rId202"/>
+    <hyperlink ref="A107" r:id="rId203"/>
+    <hyperlink ref="A108" r:id="rId204"/>
+    <hyperlink ref="D108" r:id="rId205"/>
+    <hyperlink ref="A109" r:id="rId206"/>
+    <hyperlink ref="D109" r:id="rId207"/>
+    <hyperlink ref="A110" r:id="rId208"/>
+    <hyperlink ref="A111" r:id="rId209"/>
+    <hyperlink ref="D111" r:id="rId210"/>
+    <hyperlink ref="A112" r:id="rId211"/>
+    <hyperlink ref="D112" r:id="rId212"/>
+    <hyperlink ref="A113" r:id="rId213"/>
+    <hyperlink ref="D113" r:id="rId214"/>
+    <hyperlink ref="A114" r:id="rId215"/>
+    <hyperlink ref="D114" r:id="rId216"/>
+    <hyperlink ref="A115" r:id="rId217"/>
+    <hyperlink ref="A116" r:id="rId218"/>
+    <hyperlink ref="A117" r:id="rId219"/>
+    <hyperlink ref="D117" r:id="rId220"/>
+    <hyperlink ref="A118" r:id="rId221"/>
+    <hyperlink ref="D118" r:id="rId222"/>
+    <hyperlink ref="A119" r:id="rId223"/>
+    <hyperlink ref="D119" r:id="rId224"/>
+    <hyperlink ref="A120" r:id="rId225"/>
+    <hyperlink ref="D120" r:id="rId226"/>
+    <hyperlink ref="A121" r:id="rId227"/>
+    <hyperlink ref="D121" r:id="rId228"/>
+    <hyperlink ref="A122" r:id="rId229"/>
+    <hyperlink ref="D122" r:id="rId230"/>
+    <hyperlink ref="A123" r:id="rId231"/>
+    <hyperlink ref="D123" r:id="rId232"/>
+    <hyperlink ref="A124" r:id="rId233"/>
+    <hyperlink ref="A125" r:id="rId234"/>
+    <hyperlink ref="D125" r:id="rId235"/>
+    <hyperlink ref="A126" r:id="rId236"/>
+    <hyperlink ref="D126" r:id="rId237"/>
+    <hyperlink ref="A127" r:id="rId238"/>
+    <hyperlink ref="D127" r:id="rId239"/>
+    <hyperlink ref="A128" r:id="rId240"/>
+    <hyperlink ref="A129" r:id="rId241"/>
+    <hyperlink ref="D129" r:id="rId242"/>
+    <hyperlink ref="A130" r:id="rId243"/>
+    <hyperlink ref="D130" r:id="rId244"/>
+    <hyperlink ref="A131" r:id="rId245"/>
+    <hyperlink ref="D131" r:id="rId246"/>
+    <hyperlink ref="A132" r:id="rId247"/>
+    <hyperlink ref="D132" r:id="rId248"/>
+    <hyperlink ref="A133" r:id="rId249"/>
+    <hyperlink ref="D133" r:id="rId250"/>
+    <hyperlink ref="A134" r:id="rId251"/>
+    <hyperlink ref="D134" r:id="rId252"/>
+    <hyperlink ref="A135" r:id="rId253"/>
+    <hyperlink ref="A136" r:id="rId254"/>
+    <hyperlink ref="D136" r:id="rId255"/>
+    <hyperlink ref="A137" r:id="rId256"/>
+    <hyperlink ref="D137" r:id="rId257"/>
+    <hyperlink ref="A138" r:id="rId258"/>
+    <hyperlink ref="D138" r:id="rId259"/>
+    <hyperlink ref="A139" r:id="rId260"/>
+    <hyperlink ref="D139" r:id="rId261"/>
+    <hyperlink ref="A140" r:id="rId262"/>
+    <hyperlink ref="D140" r:id="rId263"/>
+    <hyperlink ref="A141" r:id="rId264"/>
+    <hyperlink ref="A142" r:id="rId265"/>
+    <hyperlink ref="D142" r:id="rId266"/>
+    <hyperlink ref="A143" r:id="rId267"/>
+    <hyperlink ref="D143" r:id="rId268"/>
+    <hyperlink ref="A144" r:id="rId269"/>
+    <hyperlink ref="D144" r:id="rId270"/>
+    <hyperlink ref="A145" r:id="rId271"/>
+    <hyperlink ref="A146" r:id="rId272"/>
+    <hyperlink ref="D146" r:id="rId273"/>
+    <hyperlink ref="A147" r:id="rId274"/>
+    <hyperlink ref="D147" r:id="rId275"/>
+    <hyperlink ref="A148" r:id="rId276"/>
+    <hyperlink ref="D148" r:id="rId277"/>
+    <hyperlink ref="A149" r:id="rId278"/>
+    <hyperlink ref="D149" r:id="rId279"/>
+    <hyperlink ref="A150" r:id="rId280"/>
+    <hyperlink ref="D150" r:id="rId281"/>
+    <hyperlink ref="A151" r:id="rId282"/>
+    <hyperlink ref="D151" r:id="rId283"/>
+    <hyperlink ref="A152" r:id="rId284"/>
+    <hyperlink ref="D152" r:id="rId285"/>
+    <hyperlink ref="A153" r:id="rId286"/>
+    <hyperlink ref="D153" r:id="rId287"/>
+    <hyperlink ref="A154" r:id="rId288"/>
+    <hyperlink ref="D154" r:id="rId289"/>
+    <hyperlink ref="A155" r:id="rId290"/>
+    <hyperlink ref="D155" r:id="rId291"/>
+    <hyperlink ref="A156" r:id="rId292"/>
+    <hyperlink ref="D156" r:id="rId293"/>
+    <hyperlink ref="A157" r:id="rId294"/>
+    <hyperlink ref="D157" r:id="rId295"/>
+    <hyperlink ref="A158" r:id="rId296"/>
+    <hyperlink ref="A159" r:id="rId297"/>
+    <hyperlink ref="A160" r:id="rId298"/>
+    <hyperlink ref="D160" r:id="rId299"/>
+    <hyperlink ref="A161" r:id="rId300"/>
+    <hyperlink ref="D161" r:id="rId301"/>
+    <hyperlink ref="A162" r:id="rId302"/>
+    <hyperlink ref="D162" r:id="rId303"/>
+    <hyperlink ref="A163" r:id="rId304"/>
+    <hyperlink ref="A164" r:id="rId305"/>
+    <hyperlink ref="A165" r:id="rId306"/>
+    <hyperlink ref="D165" r:id="rId307"/>
+    <hyperlink ref="A166" r:id="rId308"/>
+    <hyperlink ref="D166" r:id="rId309"/>
+    <hyperlink ref="A167" r:id="rId310"/>
+    <hyperlink ref="D167" r:id="rId311"/>
+    <hyperlink ref="A168" r:id="rId312"/>
+    <hyperlink ref="D168" r:id="rId313"/>
+    <hyperlink ref="A169" r:id="rId314"/>
+    <hyperlink ref="D169" r:id="rId315"/>
+    <hyperlink ref="A170" r:id="rId316"/>
+    <hyperlink ref="D170" r:id="rId317"/>
+    <hyperlink ref="A171" r:id="rId318"/>
+    <hyperlink ref="D171" r:id="rId319"/>
+    <hyperlink ref="A172" r:id="rId320"/>
+    <hyperlink ref="D172" r:id="rId321"/>
+    <hyperlink ref="A173" r:id="rId322"/>
+    <hyperlink ref="D173" r:id="rId323"/>
+    <hyperlink ref="A174" r:id="rId324"/>
+    <hyperlink ref="D174" r:id="rId325"/>
+    <hyperlink ref="A175" r:id="rId326"/>
+    <hyperlink ref="D175" r:id="rId327"/>
+    <hyperlink ref="A176" r:id="rId328"/>
+    <hyperlink ref="D176" r:id="rId329"/>
+    <hyperlink ref="A177" r:id="rId330"/>
+    <hyperlink ref="D177" r:id="rId331"/>
+    <hyperlink ref="A178" r:id="rId332"/>
+    <hyperlink ref="D178" r:id="rId333"/>
+    <hyperlink ref="A179" r:id="rId334"/>
+    <hyperlink ref="D179" r:id="rId335"/>
+    <hyperlink ref="A180" r:id="rId336"/>
+    <hyperlink ref="D180" r:id="rId337"/>
+    <hyperlink ref="A181" r:id="rId338"/>
+    <hyperlink ref="D181" r:id="rId339"/>
+    <hyperlink ref="A182" r:id="rId340"/>
+    <hyperlink ref="D182" r:id="rId341"/>
+    <hyperlink ref="A183" r:id="rId342"/>
+    <hyperlink ref="A184" r:id="rId343"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
